--- a/girls.xlsx
+++ b/girls.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
-  <workbookPr date1904="1" autoCompressPictures="0"/>
+  <workbookPr date1904="1" autoCompressPictures="false"/>
   <bookViews>
     <workbookView xWindow="21060" yWindow="0" windowWidth="25040" windowHeight="23260"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="6" r:id="rId1"/>
-    <sheet name="Table" sheetId="2" r:id="rId2"/>
-    <sheet name="Goal Totals" sheetId="3" r:id="rId3"/>
-    <sheet name="Win-Loss-Draw" sheetId="5" r:id="rId4"/>
-    <sheet name="Game Count" sheetId="4" r:id="rId5"/>
+    <sheet name="Results" sheetId="6" r:id="rId5"/>
+    <sheet name="Table" sheetId="2" r:id="rId6"/>
+    <sheet name="Goal Totals" sheetId="3" r:id="rId7"/>
+    <sheet name="Win-Loss-Draw" sheetId="5" r:id="rId8"/>
+    <sheet name="Game Count" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$I$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Table!$A$1:$J$10</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="false"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="44">
   <si>
     <t>POS</t>
   </si>
@@ -164,72 +164,72 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <fonts count="12">
     <font>
+      <name val="Helvetica"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <name val="Helvetica Neue"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <name val="Helvetica Neue"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u/>
+      <name val="Helvetica"/>
+      <color theme="11"/>
       <sz val="10"/>
-      <color theme="11"/>
-      <name val="Helvetica"/>
+      <u val="1"/>
     </font>
     <font>
-      <u/>
+      <name val="Helvetica"/>
+      <color theme="10"/>
       <sz val="10"/>
-      <color theme="10"/>
-      <name val="Helvetica"/>
+      <u val="1"/>
     </font>
     <font>
-      <b/>
+      <name val="Helvetica Neue"/>
+      <b val="1"/>
+      <color indexed="8"/>
       <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
+      <name val="Helvetica"/>
+      <color indexed="8"/>
       <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color indexed="8"/>
       <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Helvetica"/>
+      <color rgb="FF000000"/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="14">
@@ -253,7 +253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,25 +271,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,394 +367,394 @@
     </border>
   </borders>
   <cellStyleXfs count="130">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles defaultPivotStyle="PivotStyleMedium4" count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1217,7 +1217,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1246,7 +1246,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1255,7 +1255,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1264,7 +1264,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1333,11 +1333,11 @@
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
-          <a:noFill/>
+          <a:noFill val="1"/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="false">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1345,11 +1345,11 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
-        <a:spAutoFit/>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="false" anchor="ctr">
+        <a:spAutoFit val="1"/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="false" fontAlgn="auto" latinLnBrk="false" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1359,33 +1359,33 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1200" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="false">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
             <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1395,23 +1395,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1421,23 +1421,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1447,23 +1447,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1473,23 +1473,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1499,23 +1499,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1525,23 +1525,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1551,23 +1551,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1577,23 +1577,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1603,20 +1603,20 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl9pPr>
       </a:lstStyle>
@@ -1635,7 +1635,7 @@
     </a:spDef>
     <a:lnDef>
       <a:spPr>
-        <a:noFill/>
+        <a:noFill val="1"/>
         <a:ln w="6350" cap="flat">
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -1646,11 +1646,11 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-        <a:noAutofit/>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="false" anchor="t">
+        <a:noAutofit val="1"/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1660,23 +1660,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1686,23 +1686,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1712,23 +1712,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1738,23 +1738,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1764,23 +1764,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1790,23 +1790,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1816,23 +1816,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1842,23 +1842,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1868,23 +1868,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1894,20 +1894,20 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl9pPr>
       </a:lstStyle>
@@ -1926,19 +1926,19 @@
     </a:lnDef>
     <a:txDef>
       <a:spPr>
-        <a:noFill/>
+        <a:noFill val="1"/>
         <a:ln w="12700" cap="flat">
-          <a:noFill/>
+          <a:noFill val="1"/>
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
-        <a:spAutoFit/>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="false" anchor="t">
+        <a:spAutoFit val="1"/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="false" fontAlgn="auto" latinLnBrk="false" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1948,27 +1948,27 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1100" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
             <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1978,23 +1978,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2004,23 +2004,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2030,23 +2030,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2056,23 +2056,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2082,23 +2082,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2108,23 +2108,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2134,23 +2134,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2160,23 +2160,23 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="false" fontAlgn="auto" latinLnBrk="1" hangingPunct="false">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2186,20 +2186,20 @@
           <a:spcAft>
             <a:spcPts val="0"/>
           </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
+          <a:buClrTx val="1"/>
+          <a:buSzTx val="1"/>
+          <a:buFontTx val="1"/>
+          <a:buNone val="1"/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr kumimoji="false" sz="1800" b="false" i="false" u="none" strike="noStrike" cap="none" spc="0" normalizeH="false" baseline="0">
             <a:ln>
-              <a:noFill/>
+              <a:noFill val="1"/>
             </a:ln>
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uFillTx/>
+            <a:uFillTx val="1"/>
           </a:defRPr>
         </a:lvl9pPr>
       </a:lstStyle>
@@ -2222,17 +2222,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <sheetPr enableFormatConditionsCalculation="false">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX789"/>
+  <dimension ref="A1:IX794"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="false" tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="18" bestFit="1" customWidth="1"/>
@@ -2247,7 +2247,7 @@
     <col min="259" max="16384" width="15.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="21">
+    <row r="1" spans="1:9" customFormat="false" ht="21">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:258">
+    <row r="2" spans="1:9" customFormat="false">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:258">
+    <row r="3" spans="1:9" customFormat="false">
       <c r="A3" s="17" t="s">
         <v>31</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:258">
+    <row r="4" spans="1:9" customFormat="false">
       <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:258">
+    <row r="5" spans="1:9" customFormat="false">
       <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
@@ -4041,17 +4041,33 @@
       <c r="IX11" s="51"/>
     </row>
     <row r="12" spans="1:258" s="52" customFormat="1">
-      <c r="A12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="25"/>
+      <c r="A12" s="52" t="str">
+        <v/>
+      </c>
+      <c r="B12" s="52" t="str">
+        <v>05/14/2017</v>
+      </c>
+      <c r="C12" s="52" t="str">
+        <v>Berkshire Hills Spirit</v>
+      </c>
+      <c r="D12" s="52" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="52" t="str">
+        <v/>
+      </c>
+      <c r="F12" s="52" t="str">
+        <v>Lee</v>
+      </c>
+      <c r="G12" s="52">
+        <v>3</v>
+      </c>
+      <c r="H12" s="52">
+        <v>1</v>
+      </c>
+      <c r="I12" s="52">
+        <v>3</v>
+      </c>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
@@ -4303,17 +4319,33 @@
       <c r="IX12" s="51"/>
     </row>
     <row r="13" spans="1:258" s="52" customFormat="1">
-      <c r="A13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="25"/>
+      <c r="A13" s="52" t="str">
+        <v/>
+      </c>
+      <c r="B13" s="52" t="str">
+        <v>05/14/2017</v>
+      </c>
+      <c r="C13" s="52" t="str">
+        <v>Dalton Braves</v>
+      </c>
+      <c r="D13" s="52" t="str">
+        <v/>
+      </c>
+      <c r="E13" s="52" t="str">
+        <v/>
+      </c>
+      <c r="F13" s="52" t="str">
+        <v>Dalton Warriors</v>
+      </c>
+      <c r="G13" s="52">
+        <v>3</v>
+      </c>
+      <c r="H13" s="52">
+        <v>2</v>
+      </c>
+      <c r="I13" s="52">
+        <v>4</v>
+      </c>
       <c r="J13" s="51"/>
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
@@ -4565,17 +4597,33 @@
       <c r="IX13" s="51"/>
     </row>
     <row r="14" spans="1:258" s="52" customFormat="1">
-      <c r="A14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="25"/>
+      <c r="A14" s="52" t="str">
+        <v/>
+      </c>
+      <c r="B14" s="52" t="str">
+        <v>05/14/2017</v>
+      </c>
+      <c r="C14" s="52" t="str">
+        <v>North Adams Blue Stars</v>
+      </c>
+      <c r="D14" s="52" t="str">
+        <v/>
+      </c>
+      <c r="E14" s="52" t="str">
+        <v/>
+      </c>
+      <c r="F14" s="52" t="str">
+        <v>Lenox Maroon</v>
+      </c>
+      <c r="G14" s="52">
+        <v>3</v>
+      </c>
+      <c r="H14" s="52">
+        <v>9</v>
+      </c>
+      <c r="I14" s="52">
+        <v>7</v>
+      </c>
       <c r="J14" s="51"/>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
@@ -4827,17 +4875,33 @@
       <c r="IX14" s="51"/>
     </row>
     <row r="15" spans="1:258" s="52" customFormat="1">
-      <c r="A15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="25"/>
+      <c r="A15" s="52" t="str">
+        <v/>
+      </c>
+      <c r="B15" s="52" t="str">
+        <v>05/14/2017</v>
+      </c>
+      <c r="C15" s="52" t="str">
+        <v>PSC Morgan</v>
+      </c>
+      <c r="D15" s="52" t="str">
+        <v/>
+      </c>
+      <c r="E15" s="52" t="str">
+        <v/>
+      </c>
+      <c r="F15" s="52" t="str">
+        <v>Williamstown Dash</v>
+      </c>
+      <c r="G15" s="52">
+        <v>3</v>
+      </c>
+      <c r="H15" s="52">
+        <v>8</v>
+      </c>
+      <c r="I15" s="52">
+        <v>5</v>
+      </c>
       <c r="J15" s="51"/>
       <c r="K15" s="51"/>
       <c r="L15" s="51"/>
@@ -5089,17 +5153,33 @@
       <c r="IX15" s="51"/>
     </row>
     <row r="16" spans="1:258" s="52" customFormat="1">
-      <c r="A16" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="47"/>
+      <c r="A16" s="52" t="str">
+        <v/>
+      </c>
+      <c r="B16" s="52" t="str">
+        <v>05/14/2017</v>
+      </c>
+      <c r="C16" s="52" t="str">
+        <v>Adams Sparky's</v>
+      </c>
+      <c r="D16" s="52" t="str">
+        <v/>
+      </c>
+      <c r="E16" s="52" t="str">
+        <v/>
+      </c>
+      <c r="F16" s="52" t="str">
+        <v>BYE</v>
+      </c>
+      <c r="G16" s="52">
+        <v>3</v>
+      </c>
+      <c r="H16" s="52">
+        <v>6</v>
+      </c>
+      <c r="I16" s="52">
+        <v>0</v>
+      </c>
       <c r="J16" s="51"/>
       <c r="K16" s="51"/>
       <c r="L16" s="51"/>
@@ -6660,25 +6740,1053 @@
       <c r="IW21" s="51"/>
       <c r="IX21" s="51"/>
     </row>
-    <row r="22" spans="1:258">
+    <row r="22" spans="1:258" s="52" customFormat="1">
       <c r="A22" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:258">
+      <c r="B22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="51"/>
+      <c r="BL22" s="51"/>
+      <c r="BM22" s="51"/>
+      <c r="BN22" s="51"/>
+      <c r="BO22" s="51"/>
+      <c r="BP22" s="51"/>
+      <c r="BQ22" s="51"/>
+      <c r="BR22" s="51"/>
+      <c r="BS22" s="51"/>
+      <c r="BT22" s="51"/>
+      <c r="BU22" s="51"/>
+      <c r="BV22" s="51"/>
+      <c r="BW22" s="51"/>
+      <c r="BX22" s="51"/>
+      <c r="BY22" s="51"/>
+      <c r="BZ22" s="51"/>
+      <c r="CA22" s="51"/>
+      <c r="CB22" s="51"/>
+      <c r="CC22" s="51"/>
+      <c r="CD22" s="51"/>
+      <c r="CE22" s="51"/>
+      <c r="CF22" s="51"/>
+      <c r="CG22" s="51"/>
+      <c r="CH22" s="51"/>
+      <c r="CI22" s="51"/>
+      <c r="CJ22" s="51"/>
+      <c r="CK22" s="51"/>
+      <c r="CL22" s="51"/>
+      <c r="CM22" s="51"/>
+      <c r="CN22" s="51"/>
+      <c r="CO22" s="51"/>
+      <c r="CP22" s="51"/>
+      <c r="CQ22" s="51"/>
+      <c r="CR22" s="51"/>
+      <c r="CS22" s="51"/>
+      <c r="CT22" s="51"/>
+      <c r="CU22" s="51"/>
+      <c r="CV22" s="51"/>
+      <c r="CW22" s="51"/>
+      <c r="CX22" s="51"/>
+      <c r="CY22" s="51"/>
+      <c r="CZ22" s="51"/>
+      <c r="DA22" s="51"/>
+      <c r="DB22" s="51"/>
+      <c r="DC22" s="51"/>
+      <c r="DD22" s="51"/>
+      <c r="DE22" s="51"/>
+      <c r="DF22" s="51"/>
+      <c r="DG22" s="51"/>
+      <c r="DH22" s="51"/>
+      <c r="DI22" s="51"/>
+      <c r="DJ22" s="51"/>
+      <c r="DK22" s="51"/>
+      <c r="DL22" s="51"/>
+      <c r="DM22" s="51"/>
+      <c r="DN22" s="51"/>
+      <c r="DO22" s="51"/>
+      <c r="DP22" s="51"/>
+      <c r="DQ22" s="51"/>
+      <c r="DR22" s="51"/>
+      <c r="DS22" s="51"/>
+      <c r="DT22" s="51"/>
+      <c r="DU22" s="51"/>
+      <c r="DV22" s="51"/>
+      <c r="DW22" s="51"/>
+      <c r="DX22" s="51"/>
+      <c r="DY22" s="51"/>
+      <c r="DZ22" s="51"/>
+      <c r="EA22" s="51"/>
+      <c r="EB22" s="51"/>
+      <c r="EC22" s="51"/>
+      <c r="ED22" s="51"/>
+      <c r="EE22" s="51"/>
+      <c r="EF22" s="51"/>
+      <c r="EG22" s="51"/>
+      <c r="EH22" s="51"/>
+      <c r="EI22" s="51"/>
+      <c r="EJ22" s="51"/>
+      <c r="EK22" s="51"/>
+      <c r="EL22" s="51"/>
+      <c r="EM22" s="51"/>
+      <c r="EN22" s="51"/>
+      <c r="EO22" s="51"/>
+      <c r="EP22" s="51"/>
+      <c r="EQ22" s="51"/>
+      <c r="ER22" s="51"/>
+      <c r="ES22" s="51"/>
+      <c r="ET22" s="51"/>
+      <c r="EU22" s="51"/>
+      <c r="EV22" s="51"/>
+      <c r="EW22" s="51"/>
+      <c r="EX22" s="51"/>
+      <c r="EY22" s="51"/>
+      <c r="EZ22" s="51"/>
+      <c r="FA22" s="51"/>
+      <c r="FB22" s="51"/>
+      <c r="FC22" s="51"/>
+      <c r="FD22" s="51"/>
+      <c r="FE22" s="51"/>
+      <c r="FF22" s="51"/>
+      <c r="FG22" s="51"/>
+      <c r="FH22" s="51"/>
+      <c r="FI22" s="51"/>
+      <c r="FJ22" s="51"/>
+      <c r="FK22" s="51"/>
+      <c r="FL22" s="51"/>
+      <c r="FM22" s="51"/>
+      <c r="FN22" s="51"/>
+      <c r="FO22" s="51"/>
+      <c r="FP22" s="51"/>
+      <c r="FQ22" s="51"/>
+      <c r="FR22" s="51"/>
+      <c r="FS22" s="51"/>
+      <c r="FT22" s="51"/>
+      <c r="FU22" s="51"/>
+      <c r="FV22" s="51"/>
+      <c r="FW22" s="51"/>
+      <c r="FX22" s="51"/>
+      <c r="FY22" s="51"/>
+      <c r="FZ22" s="51"/>
+      <c r="GA22" s="51"/>
+      <c r="GB22" s="51"/>
+      <c r="GC22" s="51"/>
+      <c r="GD22" s="51"/>
+      <c r="GE22" s="51"/>
+      <c r="GF22" s="51"/>
+      <c r="GG22" s="51"/>
+      <c r="GH22" s="51"/>
+      <c r="GI22" s="51"/>
+      <c r="GJ22" s="51"/>
+      <c r="GK22" s="51"/>
+      <c r="GL22" s="51"/>
+      <c r="GM22" s="51"/>
+      <c r="GN22" s="51"/>
+      <c r="GO22" s="51"/>
+      <c r="GP22" s="51"/>
+      <c r="GQ22" s="51"/>
+      <c r="GR22" s="51"/>
+      <c r="GS22" s="51"/>
+      <c r="GT22" s="51"/>
+      <c r="GU22" s="51"/>
+      <c r="GV22" s="51"/>
+      <c r="GW22" s="51"/>
+      <c r="GX22" s="51"/>
+      <c r="GY22" s="51"/>
+      <c r="GZ22" s="51"/>
+      <c r="HA22" s="51"/>
+      <c r="HB22" s="51"/>
+      <c r="HC22" s="51"/>
+      <c r="HD22" s="51"/>
+      <c r="HE22" s="51"/>
+      <c r="HF22" s="51"/>
+      <c r="HG22" s="51"/>
+      <c r="HH22" s="51"/>
+      <c r="HI22" s="51"/>
+      <c r="HJ22" s="51"/>
+      <c r="HK22" s="51"/>
+      <c r="HL22" s="51"/>
+      <c r="HM22" s="51"/>
+      <c r="HN22" s="51"/>
+      <c r="HO22" s="51"/>
+      <c r="HP22" s="51"/>
+      <c r="HQ22" s="51"/>
+      <c r="HR22" s="51"/>
+      <c r="HS22" s="51"/>
+      <c r="HT22" s="51"/>
+      <c r="HU22" s="51"/>
+      <c r="HV22" s="51"/>
+      <c r="HW22" s="51"/>
+      <c r="HX22" s="51"/>
+      <c r="HY22" s="51"/>
+      <c r="HZ22" s="51"/>
+      <c r="IA22" s="51"/>
+      <c r="IB22" s="51"/>
+      <c r="IC22" s="51"/>
+      <c r="ID22" s="51"/>
+      <c r="IE22" s="51"/>
+      <c r="IF22" s="51"/>
+      <c r="IG22" s="51"/>
+      <c r="IH22" s="51"/>
+      <c r="II22" s="51"/>
+      <c r="IJ22" s="51"/>
+      <c r="IK22" s="51"/>
+      <c r="IL22" s="51"/>
+      <c r="IM22" s="51"/>
+      <c r="IN22" s="51"/>
+      <c r="IO22" s="51"/>
+      <c r="IP22" s="51"/>
+      <c r="IQ22" s="51"/>
+      <c r="IR22" s="51"/>
+      <c r="IS22" s="51"/>
+      <c r="IT22" s="51"/>
+      <c r="IU22" s="51"/>
+      <c r="IV22" s="51"/>
+      <c r="IW22" s="51"/>
+      <c r="IX22" s="51"/>
+    </row>
+    <row r="23" spans="1:258" s="52" customFormat="1">
       <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:258">
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="51"/>
+      <c r="AM23" s="51"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
+      <c r="BJ23" s="51"/>
+      <c r="BK23" s="51"/>
+      <c r="BL23" s="51"/>
+      <c r="BM23" s="51"/>
+      <c r="BN23" s="51"/>
+      <c r="BO23" s="51"/>
+      <c r="BP23" s="51"/>
+      <c r="BQ23" s="51"/>
+      <c r="BR23" s="51"/>
+      <c r="BS23" s="51"/>
+      <c r="BT23" s="51"/>
+      <c r="BU23" s="51"/>
+      <c r="BV23" s="51"/>
+      <c r="BW23" s="51"/>
+      <c r="BX23" s="51"/>
+      <c r="BY23" s="51"/>
+      <c r="BZ23" s="51"/>
+      <c r="CA23" s="51"/>
+      <c r="CB23" s="51"/>
+      <c r="CC23" s="51"/>
+      <c r="CD23" s="51"/>
+      <c r="CE23" s="51"/>
+      <c r="CF23" s="51"/>
+      <c r="CG23" s="51"/>
+      <c r="CH23" s="51"/>
+      <c r="CI23" s="51"/>
+      <c r="CJ23" s="51"/>
+      <c r="CK23" s="51"/>
+      <c r="CL23" s="51"/>
+      <c r="CM23" s="51"/>
+      <c r="CN23" s="51"/>
+      <c r="CO23" s="51"/>
+      <c r="CP23" s="51"/>
+      <c r="CQ23" s="51"/>
+      <c r="CR23" s="51"/>
+      <c r="CS23" s="51"/>
+      <c r="CT23" s="51"/>
+      <c r="CU23" s="51"/>
+      <c r="CV23" s="51"/>
+      <c r="CW23" s="51"/>
+      <c r="CX23" s="51"/>
+      <c r="CY23" s="51"/>
+      <c r="CZ23" s="51"/>
+      <c r="DA23" s="51"/>
+      <c r="DB23" s="51"/>
+      <c r="DC23" s="51"/>
+      <c r="DD23" s="51"/>
+      <c r="DE23" s="51"/>
+      <c r="DF23" s="51"/>
+      <c r="DG23" s="51"/>
+      <c r="DH23" s="51"/>
+      <c r="DI23" s="51"/>
+      <c r="DJ23" s="51"/>
+      <c r="DK23" s="51"/>
+      <c r="DL23" s="51"/>
+      <c r="DM23" s="51"/>
+      <c r="DN23" s="51"/>
+      <c r="DO23" s="51"/>
+      <c r="DP23" s="51"/>
+      <c r="DQ23" s="51"/>
+      <c r="DR23" s="51"/>
+      <c r="DS23" s="51"/>
+      <c r="DT23" s="51"/>
+      <c r="DU23" s="51"/>
+      <c r="DV23" s="51"/>
+      <c r="DW23" s="51"/>
+      <c r="DX23" s="51"/>
+      <c r="DY23" s="51"/>
+      <c r="DZ23" s="51"/>
+      <c r="EA23" s="51"/>
+      <c r="EB23" s="51"/>
+      <c r="EC23" s="51"/>
+      <c r="ED23" s="51"/>
+      <c r="EE23" s="51"/>
+      <c r="EF23" s="51"/>
+      <c r="EG23" s="51"/>
+      <c r="EH23" s="51"/>
+      <c r="EI23" s="51"/>
+      <c r="EJ23" s="51"/>
+      <c r="EK23" s="51"/>
+      <c r="EL23" s="51"/>
+      <c r="EM23" s="51"/>
+      <c r="EN23" s="51"/>
+      <c r="EO23" s="51"/>
+      <c r="EP23" s="51"/>
+      <c r="EQ23" s="51"/>
+      <c r="ER23" s="51"/>
+      <c r="ES23" s="51"/>
+      <c r="ET23" s="51"/>
+      <c r="EU23" s="51"/>
+      <c r="EV23" s="51"/>
+      <c r="EW23" s="51"/>
+      <c r="EX23" s="51"/>
+      <c r="EY23" s="51"/>
+      <c r="EZ23" s="51"/>
+      <c r="FA23" s="51"/>
+      <c r="FB23" s="51"/>
+      <c r="FC23" s="51"/>
+      <c r="FD23" s="51"/>
+      <c r="FE23" s="51"/>
+      <c r="FF23" s="51"/>
+      <c r="FG23" s="51"/>
+      <c r="FH23" s="51"/>
+      <c r="FI23" s="51"/>
+      <c r="FJ23" s="51"/>
+      <c r="FK23" s="51"/>
+      <c r="FL23" s="51"/>
+      <c r="FM23" s="51"/>
+      <c r="FN23" s="51"/>
+      <c r="FO23" s="51"/>
+      <c r="FP23" s="51"/>
+      <c r="FQ23" s="51"/>
+      <c r="FR23" s="51"/>
+      <c r="FS23" s="51"/>
+      <c r="FT23" s="51"/>
+      <c r="FU23" s="51"/>
+      <c r="FV23" s="51"/>
+      <c r="FW23" s="51"/>
+      <c r="FX23" s="51"/>
+      <c r="FY23" s="51"/>
+      <c r="FZ23" s="51"/>
+      <c r="GA23" s="51"/>
+      <c r="GB23" s="51"/>
+      <c r="GC23" s="51"/>
+      <c r="GD23" s="51"/>
+      <c r="GE23" s="51"/>
+      <c r="GF23" s="51"/>
+      <c r="GG23" s="51"/>
+      <c r="GH23" s="51"/>
+      <c r="GI23" s="51"/>
+      <c r="GJ23" s="51"/>
+      <c r="GK23" s="51"/>
+      <c r="GL23" s="51"/>
+      <c r="GM23" s="51"/>
+      <c r="GN23" s="51"/>
+      <c r="GO23" s="51"/>
+      <c r="GP23" s="51"/>
+      <c r="GQ23" s="51"/>
+      <c r="GR23" s="51"/>
+      <c r="GS23" s="51"/>
+      <c r="GT23" s="51"/>
+      <c r="GU23" s="51"/>
+      <c r="GV23" s="51"/>
+      <c r="GW23" s="51"/>
+      <c r="GX23" s="51"/>
+      <c r="GY23" s="51"/>
+      <c r="GZ23" s="51"/>
+      <c r="HA23" s="51"/>
+      <c r="HB23" s="51"/>
+      <c r="HC23" s="51"/>
+      <c r="HD23" s="51"/>
+      <c r="HE23" s="51"/>
+      <c r="HF23" s="51"/>
+      <c r="HG23" s="51"/>
+      <c r="HH23" s="51"/>
+      <c r="HI23" s="51"/>
+      <c r="HJ23" s="51"/>
+      <c r="HK23" s="51"/>
+      <c r="HL23" s="51"/>
+      <c r="HM23" s="51"/>
+      <c r="HN23" s="51"/>
+      <c r="HO23" s="51"/>
+      <c r="HP23" s="51"/>
+      <c r="HQ23" s="51"/>
+      <c r="HR23" s="51"/>
+      <c r="HS23" s="51"/>
+      <c r="HT23" s="51"/>
+      <c r="HU23" s="51"/>
+      <c r="HV23" s="51"/>
+      <c r="HW23" s="51"/>
+      <c r="HX23" s="51"/>
+      <c r="HY23" s="51"/>
+      <c r="HZ23" s="51"/>
+      <c r="IA23" s="51"/>
+      <c r="IB23" s="51"/>
+      <c r="IC23" s="51"/>
+      <c r="ID23" s="51"/>
+      <c r="IE23" s="51"/>
+      <c r="IF23" s="51"/>
+      <c r="IG23" s="51"/>
+      <c r="IH23" s="51"/>
+      <c r="II23" s="51"/>
+      <c r="IJ23" s="51"/>
+      <c r="IK23" s="51"/>
+      <c r="IL23" s="51"/>
+      <c r="IM23" s="51"/>
+      <c r="IN23" s="51"/>
+      <c r="IO23" s="51"/>
+      <c r="IP23" s="51"/>
+      <c r="IQ23" s="51"/>
+      <c r="IR23" s="51"/>
+      <c r="IS23" s="51"/>
+      <c r="IT23" s="51"/>
+      <c r="IU23" s="51"/>
+      <c r="IV23" s="51"/>
+      <c r="IW23" s="51"/>
+      <c r="IX23" s="51"/>
+    </row>
+    <row r="24" spans="1:258" s="52" customFormat="1">
       <c r="A24" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:258">
+      <c r="B24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51"/>
+      <c r="AM24" s="51"/>
+      <c r="AN24" s="51"/>
+      <c r="AO24" s="51"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="51"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="51"/>
+      <c r="BB24" s="51"/>
+      <c r="BC24" s="51"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="BH24" s="51"/>
+      <c r="BI24" s="51"/>
+      <c r="BJ24" s="51"/>
+      <c r="BK24" s="51"/>
+      <c r="BL24" s="51"/>
+      <c r="BM24" s="51"/>
+      <c r="BN24" s="51"/>
+      <c r="BO24" s="51"/>
+      <c r="BP24" s="51"/>
+      <c r="BQ24" s="51"/>
+      <c r="BR24" s="51"/>
+      <c r="BS24" s="51"/>
+      <c r="BT24" s="51"/>
+      <c r="BU24" s="51"/>
+      <c r="BV24" s="51"/>
+      <c r="BW24" s="51"/>
+      <c r="BX24" s="51"/>
+      <c r="BY24" s="51"/>
+      <c r="BZ24" s="51"/>
+      <c r="CA24" s="51"/>
+      <c r="CB24" s="51"/>
+      <c r="CC24" s="51"/>
+      <c r="CD24" s="51"/>
+      <c r="CE24" s="51"/>
+      <c r="CF24" s="51"/>
+      <c r="CG24" s="51"/>
+      <c r="CH24" s="51"/>
+      <c r="CI24" s="51"/>
+      <c r="CJ24" s="51"/>
+      <c r="CK24" s="51"/>
+      <c r="CL24" s="51"/>
+      <c r="CM24" s="51"/>
+      <c r="CN24" s="51"/>
+      <c r="CO24" s="51"/>
+      <c r="CP24" s="51"/>
+      <c r="CQ24" s="51"/>
+      <c r="CR24" s="51"/>
+      <c r="CS24" s="51"/>
+      <c r="CT24" s="51"/>
+      <c r="CU24" s="51"/>
+      <c r="CV24" s="51"/>
+      <c r="CW24" s="51"/>
+      <c r="CX24" s="51"/>
+      <c r="CY24" s="51"/>
+      <c r="CZ24" s="51"/>
+      <c r="DA24" s="51"/>
+      <c r="DB24" s="51"/>
+      <c r="DC24" s="51"/>
+      <c r="DD24" s="51"/>
+      <c r="DE24" s="51"/>
+      <c r="DF24" s="51"/>
+      <c r="DG24" s="51"/>
+      <c r="DH24" s="51"/>
+      <c r="DI24" s="51"/>
+      <c r="DJ24" s="51"/>
+      <c r="DK24" s="51"/>
+      <c r="DL24" s="51"/>
+      <c r="DM24" s="51"/>
+      <c r="DN24" s="51"/>
+      <c r="DO24" s="51"/>
+      <c r="DP24" s="51"/>
+      <c r="DQ24" s="51"/>
+      <c r="DR24" s="51"/>
+      <c r="DS24" s="51"/>
+      <c r="DT24" s="51"/>
+      <c r="DU24" s="51"/>
+      <c r="DV24" s="51"/>
+      <c r="DW24" s="51"/>
+      <c r="DX24" s="51"/>
+      <c r="DY24" s="51"/>
+      <c r="DZ24" s="51"/>
+      <c r="EA24" s="51"/>
+      <c r="EB24" s="51"/>
+      <c r="EC24" s="51"/>
+      <c r="ED24" s="51"/>
+      <c r="EE24" s="51"/>
+      <c r="EF24" s="51"/>
+      <c r="EG24" s="51"/>
+      <c r="EH24" s="51"/>
+      <c r="EI24" s="51"/>
+      <c r="EJ24" s="51"/>
+      <c r="EK24" s="51"/>
+      <c r="EL24" s="51"/>
+      <c r="EM24" s="51"/>
+      <c r="EN24" s="51"/>
+      <c r="EO24" s="51"/>
+      <c r="EP24" s="51"/>
+      <c r="EQ24" s="51"/>
+      <c r="ER24" s="51"/>
+      <c r="ES24" s="51"/>
+      <c r="ET24" s="51"/>
+      <c r="EU24" s="51"/>
+      <c r="EV24" s="51"/>
+      <c r="EW24" s="51"/>
+      <c r="EX24" s="51"/>
+      <c r="EY24" s="51"/>
+      <c r="EZ24" s="51"/>
+      <c r="FA24" s="51"/>
+      <c r="FB24" s="51"/>
+      <c r="FC24" s="51"/>
+      <c r="FD24" s="51"/>
+      <c r="FE24" s="51"/>
+      <c r="FF24" s="51"/>
+      <c r="FG24" s="51"/>
+      <c r="FH24" s="51"/>
+      <c r="FI24" s="51"/>
+      <c r="FJ24" s="51"/>
+      <c r="FK24" s="51"/>
+      <c r="FL24" s="51"/>
+      <c r="FM24" s="51"/>
+      <c r="FN24" s="51"/>
+      <c r="FO24" s="51"/>
+      <c r="FP24" s="51"/>
+      <c r="FQ24" s="51"/>
+      <c r="FR24" s="51"/>
+      <c r="FS24" s="51"/>
+      <c r="FT24" s="51"/>
+      <c r="FU24" s="51"/>
+      <c r="FV24" s="51"/>
+      <c r="FW24" s="51"/>
+      <c r="FX24" s="51"/>
+      <c r="FY24" s="51"/>
+      <c r="FZ24" s="51"/>
+      <c r="GA24" s="51"/>
+      <c r="GB24" s="51"/>
+      <c r="GC24" s="51"/>
+      <c r="GD24" s="51"/>
+      <c r="GE24" s="51"/>
+      <c r="GF24" s="51"/>
+      <c r="GG24" s="51"/>
+      <c r="GH24" s="51"/>
+      <c r="GI24" s="51"/>
+      <c r="GJ24" s="51"/>
+      <c r="GK24" s="51"/>
+      <c r="GL24" s="51"/>
+      <c r="GM24" s="51"/>
+      <c r="GN24" s="51"/>
+      <c r="GO24" s="51"/>
+      <c r="GP24" s="51"/>
+      <c r="GQ24" s="51"/>
+      <c r="GR24" s="51"/>
+      <c r="GS24" s="51"/>
+      <c r="GT24" s="51"/>
+      <c r="GU24" s="51"/>
+      <c r="GV24" s="51"/>
+      <c r="GW24" s="51"/>
+      <c r="GX24" s="51"/>
+      <c r="GY24" s="51"/>
+      <c r="GZ24" s="51"/>
+      <c r="HA24" s="51"/>
+      <c r="HB24" s="51"/>
+      <c r="HC24" s="51"/>
+      <c r="HD24" s="51"/>
+      <c r="HE24" s="51"/>
+      <c r="HF24" s="51"/>
+      <c r="HG24" s="51"/>
+      <c r="HH24" s="51"/>
+      <c r="HI24" s="51"/>
+      <c r="HJ24" s="51"/>
+      <c r="HK24" s="51"/>
+      <c r="HL24" s="51"/>
+      <c r="HM24" s="51"/>
+      <c r="HN24" s="51"/>
+      <c r="HO24" s="51"/>
+      <c r="HP24" s="51"/>
+      <c r="HQ24" s="51"/>
+      <c r="HR24" s="51"/>
+      <c r="HS24" s="51"/>
+      <c r="HT24" s="51"/>
+      <c r="HU24" s="51"/>
+      <c r="HV24" s="51"/>
+      <c r="HW24" s="51"/>
+      <c r="HX24" s="51"/>
+      <c r="HY24" s="51"/>
+      <c r="HZ24" s="51"/>
+      <c r="IA24" s="51"/>
+      <c r="IB24" s="51"/>
+      <c r="IC24" s="51"/>
+      <c r="ID24" s="51"/>
+      <c r="IE24" s="51"/>
+      <c r="IF24" s="51"/>
+      <c r="IG24" s="51"/>
+      <c r="IH24" s="51"/>
+      <c r="II24" s="51"/>
+      <c r="IJ24" s="51"/>
+      <c r="IK24" s="51"/>
+      <c r="IL24" s="51"/>
+      <c r="IM24" s="51"/>
+      <c r="IN24" s="51"/>
+      <c r="IO24" s="51"/>
+      <c r="IP24" s="51"/>
+      <c r="IQ24" s="51"/>
+      <c r="IR24" s="51"/>
+      <c r="IS24" s="51"/>
+      <c r="IT24" s="51"/>
+      <c r="IU24" s="51"/>
+      <c r="IV24" s="51"/>
+      <c r="IW24" s="51"/>
+      <c r="IX24" s="51"/>
+    </row>
+    <row r="25" spans="1:258" s="52" customFormat="1">
       <c r="A25" s="17" t="s">
         <v>31</v>
       </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51"/>
+      <c r="AN25" s="51"/>
+      <c r="AO25" s="51"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="51"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
+      <c r="BB25" s="51"/>
+      <c r="BC25" s="51"/>
+      <c r="BD25" s="51"/>
+      <c r="BE25" s="51"/>
+      <c r="BF25" s="51"/>
+      <c r="BG25" s="51"/>
+      <c r="BH25" s="51"/>
+      <c r="BI25" s="51"/>
+      <c r="BJ25" s="51"/>
+      <c r="BK25" s="51"/>
+      <c r="BL25" s="51"/>
+      <c r="BM25" s="51"/>
+      <c r="BN25" s="51"/>
+      <c r="BO25" s="51"/>
+      <c r="BP25" s="51"/>
+      <c r="BQ25" s="51"/>
+      <c r="BR25" s="51"/>
+      <c r="BS25" s="51"/>
+      <c r="BT25" s="51"/>
+      <c r="BU25" s="51"/>
+      <c r="BV25" s="51"/>
+      <c r="BW25" s="51"/>
+      <c r="BX25" s="51"/>
+      <c r="BY25" s="51"/>
+      <c r="BZ25" s="51"/>
+      <c r="CA25" s="51"/>
+      <c r="CB25" s="51"/>
+      <c r="CC25" s="51"/>
+      <c r="CD25" s="51"/>
+      <c r="CE25" s="51"/>
+      <c r="CF25" s="51"/>
+      <c r="CG25" s="51"/>
+      <c r="CH25" s="51"/>
+      <c r="CI25" s="51"/>
+      <c r="CJ25" s="51"/>
+      <c r="CK25" s="51"/>
+      <c r="CL25" s="51"/>
+      <c r="CM25" s="51"/>
+      <c r="CN25" s="51"/>
+      <c r="CO25" s="51"/>
+      <c r="CP25" s="51"/>
+      <c r="CQ25" s="51"/>
+      <c r="CR25" s="51"/>
+      <c r="CS25" s="51"/>
+      <c r="CT25" s="51"/>
+      <c r="CU25" s="51"/>
+      <c r="CV25" s="51"/>
+      <c r="CW25" s="51"/>
+      <c r="CX25" s="51"/>
+      <c r="CY25" s="51"/>
+      <c r="CZ25" s="51"/>
+      <c r="DA25" s="51"/>
+      <c r="DB25" s="51"/>
+      <c r="DC25" s="51"/>
+      <c r="DD25" s="51"/>
+      <c r="DE25" s="51"/>
+      <c r="DF25" s="51"/>
+      <c r="DG25" s="51"/>
+      <c r="DH25" s="51"/>
+      <c r="DI25" s="51"/>
+      <c r="DJ25" s="51"/>
+      <c r="DK25" s="51"/>
+      <c r="DL25" s="51"/>
+      <c r="DM25" s="51"/>
+      <c r="DN25" s="51"/>
+      <c r="DO25" s="51"/>
+      <c r="DP25" s="51"/>
+      <c r="DQ25" s="51"/>
+      <c r="DR25" s="51"/>
+      <c r="DS25" s="51"/>
+      <c r="DT25" s="51"/>
+      <c r="DU25" s="51"/>
+      <c r="DV25" s="51"/>
+      <c r="DW25" s="51"/>
+      <c r="DX25" s="51"/>
+      <c r="DY25" s="51"/>
+      <c r="DZ25" s="51"/>
+      <c r="EA25" s="51"/>
+      <c r="EB25" s="51"/>
+      <c r="EC25" s="51"/>
+      <c r="ED25" s="51"/>
+      <c r="EE25" s="51"/>
+      <c r="EF25" s="51"/>
+      <c r="EG25" s="51"/>
+      <c r="EH25" s="51"/>
+      <c r="EI25" s="51"/>
+      <c r="EJ25" s="51"/>
+      <c r="EK25" s="51"/>
+      <c r="EL25" s="51"/>
+      <c r="EM25" s="51"/>
+      <c r="EN25" s="51"/>
+      <c r="EO25" s="51"/>
+      <c r="EP25" s="51"/>
+      <c r="EQ25" s="51"/>
+      <c r="ER25" s="51"/>
+      <c r="ES25" s="51"/>
+      <c r="ET25" s="51"/>
+      <c r="EU25" s="51"/>
+      <c r="EV25" s="51"/>
+      <c r="EW25" s="51"/>
+      <c r="EX25" s="51"/>
+      <c r="EY25" s="51"/>
+      <c r="EZ25" s="51"/>
+      <c r="FA25" s="51"/>
+      <c r="FB25" s="51"/>
+      <c r="FC25" s="51"/>
+      <c r="FD25" s="51"/>
+      <c r="FE25" s="51"/>
+      <c r="FF25" s="51"/>
+      <c r="FG25" s="51"/>
+      <c r="FH25" s="51"/>
+      <c r="FI25" s="51"/>
+      <c r="FJ25" s="51"/>
+      <c r="FK25" s="51"/>
+      <c r="FL25" s="51"/>
+      <c r="FM25" s="51"/>
+      <c r="FN25" s="51"/>
+      <c r="FO25" s="51"/>
+      <c r="FP25" s="51"/>
+      <c r="FQ25" s="51"/>
+      <c r="FR25" s="51"/>
+      <c r="FS25" s="51"/>
+      <c r="FT25" s="51"/>
+      <c r="FU25" s="51"/>
+      <c r="FV25" s="51"/>
+      <c r="FW25" s="51"/>
+      <c r="FX25" s="51"/>
+      <c r="FY25" s="51"/>
+      <c r="FZ25" s="51"/>
+      <c r="GA25" s="51"/>
+      <c r="GB25" s="51"/>
+      <c r="GC25" s="51"/>
+      <c r="GD25" s="51"/>
+      <c r="GE25" s="51"/>
+      <c r="GF25" s="51"/>
+      <c r="GG25" s="51"/>
+      <c r="GH25" s="51"/>
+      <c r="GI25" s="51"/>
+      <c r="GJ25" s="51"/>
+      <c r="GK25" s="51"/>
+      <c r="GL25" s="51"/>
+      <c r="GM25" s="51"/>
+      <c r="GN25" s="51"/>
+      <c r="GO25" s="51"/>
+      <c r="GP25" s="51"/>
+      <c r="GQ25" s="51"/>
+      <c r="GR25" s="51"/>
+      <c r="GS25" s="51"/>
+      <c r="GT25" s="51"/>
+      <c r="GU25" s="51"/>
+      <c r="GV25" s="51"/>
+      <c r="GW25" s="51"/>
+      <c r="GX25" s="51"/>
+      <c r="GY25" s="51"/>
+      <c r="GZ25" s="51"/>
+      <c r="HA25" s="51"/>
+      <c r="HB25" s="51"/>
+      <c r="HC25" s="51"/>
+      <c r="HD25" s="51"/>
+      <c r="HE25" s="51"/>
+      <c r="HF25" s="51"/>
+      <c r="HG25" s="51"/>
+      <c r="HH25" s="51"/>
+      <c r="HI25" s="51"/>
+      <c r="HJ25" s="51"/>
+      <c r="HK25" s="51"/>
+      <c r="HL25" s="51"/>
+      <c r="HM25" s="51"/>
+      <c r="HN25" s="51"/>
+      <c r="HO25" s="51"/>
+      <c r="HP25" s="51"/>
+      <c r="HQ25" s="51"/>
+      <c r="HR25" s="51"/>
+      <c r="HS25" s="51"/>
+      <c r="HT25" s="51"/>
+      <c r="HU25" s="51"/>
+      <c r="HV25" s="51"/>
+      <c r="HW25" s="51"/>
+      <c r="HX25" s="51"/>
+      <c r="HY25" s="51"/>
+      <c r="HZ25" s="51"/>
+      <c r="IA25" s="51"/>
+      <c r="IB25" s="51"/>
+      <c r="IC25" s="51"/>
+      <c r="ID25" s="51"/>
+      <c r="IE25" s="51"/>
+      <c r="IF25" s="51"/>
+      <c r="IG25" s="51"/>
+      <c r="IH25" s="51"/>
+      <c r="II25" s="51"/>
+      <c r="IJ25" s="51"/>
+      <c r="IK25" s="51"/>
+      <c r="IL25" s="51"/>
+      <c r="IM25" s="51"/>
+      <c r="IN25" s="51"/>
+      <c r="IO25" s="51"/>
+      <c r="IP25" s="51"/>
+      <c r="IQ25" s="51"/>
+      <c r="IR25" s="51"/>
+      <c r="IS25" s="51"/>
+      <c r="IT25" s="51"/>
+      <c r="IU25" s="51"/>
+      <c r="IV25" s="51"/>
+      <c r="IW25" s="51"/>
+      <c r="IX25" s="51"/>
     </row>
     <row r="26" spans="1:258" s="52" customFormat="1">
       <c r="A26" s="45" t="s">
@@ -6942,22 +8050,22 @@
       <c r="IW26" s="51"/>
       <c r="IX26" s="51"/>
     </row>
-    <row r="27" spans="1:258">
+    <row r="27" spans="1:1" customFormat="false">
       <c r="A27" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:258">
+    <row r="28" spans="1:1" customFormat="false">
       <c r="A28" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:258">
+    <row r="29" spans="1:1" customFormat="false">
       <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:258">
+    <row r="30" spans="1:1" customFormat="false">
       <c r="A30" s="17" t="s">
         <v>31</v>
       </c>
@@ -7224,22 +8332,22 @@
       <c r="IW31" s="51"/>
       <c r="IX31" s="51"/>
     </row>
-    <row r="32" spans="1:258">
+    <row r="32" spans="1:1" customFormat="false">
       <c r="A32" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:258">
+    <row r="33" spans="1:1" customFormat="false">
       <c r="A33" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:258">
+    <row r="34" spans="1:1" customFormat="false">
       <c r="A34" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:258">
+    <row r="35" spans="1:1" customFormat="false">
       <c r="A35" s="17" t="s">
         <v>31</v>
       </c>
@@ -7506,22 +8614,22 @@
       <c r="IW36" s="51"/>
       <c r="IX36" s="51"/>
     </row>
-    <row r="37" spans="1:258">
+    <row r="37" spans="1:1" customFormat="false">
       <c r="A37" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:258">
+    <row r="38" spans="1:1" customFormat="false">
       <c r="A38" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:258">
+    <row r="39" spans="1:1" customFormat="false">
       <c r="A39" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:258">
+    <row r="40" spans="1:1" customFormat="false">
       <c r="A40" s="17" t="s">
         <v>31</v>
       </c>
@@ -7788,22 +8896,22 @@
       <c r="IW41" s="51"/>
       <c r="IX41" s="51"/>
     </row>
-    <row r="42" spans="1:258">
+    <row r="42" spans="1:1" customFormat="false">
       <c r="A42" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:258">
+    <row r="43" spans="1:1" customFormat="false">
       <c r="A43" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:258">
+    <row r="44" spans="1:1" customFormat="false">
       <c r="A44" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:258">
+    <row r="45" spans="1:1" customFormat="false">
       <c r="A45" s="17" t="s">
         <v>31</v>
       </c>
@@ -8070,22 +9178,22 @@
       <c r="IW46" s="51"/>
       <c r="IX46" s="51"/>
     </row>
-    <row r="47" spans="1:258">
+    <row r="47" spans="1:1" customFormat="false">
       <c r="A47" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:258">
+    <row r="48" spans="1:1" customFormat="false">
       <c r="A48" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:258">
+    <row r="49" spans="1:1" customFormat="false">
       <c r="A49" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:258">
+    <row r="50" spans="1:1" customFormat="false">
       <c r="A50" s="17" t="s">
         <v>31</v>
       </c>
@@ -8352,22 +9460,22 @@
       <c r="IW51" s="51"/>
       <c r="IX51" s="51"/>
     </row>
-    <row r="52" spans="1:258">
+    <row r="52" spans="1:1" customFormat="false">
       <c r="A52" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:258">
+    <row r="53" spans="1:1" customFormat="false">
       <c r="A53" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:258">
+    <row r="54" spans="1:1" customFormat="false">
       <c r="A54" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:258">
+    <row r="55" spans="1:1" customFormat="false">
       <c r="A55" s="17" t="s">
         <v>31</v>
       </c>
@@ -8376,14 +9484,14 @@
       <c r="A56" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="25"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="47"/>
       <c r="J56" s="51"/>
       <c r="K56" s="51"/>
       <c r="L56" s="51"/>
@@ -8634,2198 +9742,2429 @@
       <c r="IW56" s="51"/>
       <c r="IX56" s="51"/>
     </row>
-    <row r="57" spans="1:258">
+    <row r="57" spans="1:1" customFormat="false">
       <c r="A57" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:258">
+    <row r="58" spans="1:1" customFormat="false">
       <c r="A58" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:258">
+    <row r="59" spans="1:1" customFormat="false">
       <c r="A59" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:258">
+    <row r="60" spans="1:1" customFormat="false">
       <c r="A60" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:258">
-      <c r="A61" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:258">
+    <row r="61" spans="1:258" s="52" customFormat="1">
+      <c r="A61" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="51"/>
+      <c r="AE61" s="51"/>
+      <c r="AF61" s="51"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="51"/>
+      <c r="AM61" s="51"/>
+      <c r="AN61" s="51"/>
+      <c r="AO61" s="51"/>
+      <c r="AP61" s="51"/>
+      <c r="AQ61" s="51"/>
+      <c r="AR61" s="51"/>
+      <c r="AS61" s="51"/>
+      <c r="AT61" s="51"/>
+      <c r="AU61" s="51"/>
+      <c r="AV61" s="51"/>
+      <c r="AW61" s="51"/>
+      <c r="AX61" s="51"/>
+      <c r="AY61" s="51"/>
+      <c r="AZ61" s="51"/>
+      <c r="BA61" s="51"/>
+      <c r="BB61" s="51"/>
+      <c r="BC61" s="51"/>
+      <c r="BD61" s="51"/>
+      <c r="BE61" s="51"/>
+      <c r="BF61" s="51"/>
+      <c r="BG61" s="51"/>
+      <c r="BH61" s="51"/>
+      <c r="BI61" s="51"/>
+      <c r="BJ61" s="51"/>
+      <c r="BK61" s="51"/>
+      <c r="BL61" s="51"/>
+      <c r="BM61" s="51"/>
+      <c r="BN61" s="51"/>
+      <c r="BO61" s="51"/>
+      <c r="BP61" s="51"/>
+      <c r="BQ61" s="51"/>
+      <c r="BR61" s="51"/>
+      <c r="BS61" s="51"/>
+      <c r="BT61" s="51"/>
+      <c r="BU61" s="51"/>
+      <c r="BV61" s="51"/>
+      <c r="BW61" s="51"/>
+      <c r="BX61" s="51"/>
+      <c r="BY61" s="51"/>
+      <c r="BZ61" s="51"/>
+      <c r="CA61" s="51"/>
+      <c r="CB61" s="51"/>
+      <c r="CC61" s="51"/>
+      <c r="CD61" s="51"/>
+      <c r="CE61" s="51"/>
+      <c r="CF61" s="51"/>
+      <c r="CG61" s="51"/>
+      <c r="CH61" s="51"/>
+      <c r="CI61" s="51"/>
+      <c r="CJ61" s="51"/>
+      <c r="CK61" s="51"/>
+      <c r="CL61" s="51"/>
+      <c r="CM61" s="51"/>
+      <c r="CN61" s="51"/>
+      <c r="CO61" s="51"/>
+      <c r="CP61" s="51"/>
+      <c r="CQ61" s="51"/>
+      <c r="CR61" s="51"/>
+      <c r="CS61" s="51"/>
+      <c r="CT61" s="51"/>
+      <c r="CU61" s="51"/>
+      <c r="CV61" s="51"/>
+      <c r="CW61" s="51"/>
+      <c r="CX61" s="51"/>
+      <c r="CY61" s="51"/>
+      <c r="CZ61" s="51"/>
+      <c r="DA61" s="51"/>
+      <c r="DB61" s="51"/>
+      <c r="DC61" s="51"/>
+      <c r="DD61" s="51"/>
+      <c r="DE61" s="51"/>
+      <c r="DF61" s="51"/>
+      <c r="DG61" s="51"/>
+      <c r="DH61" s="51"/>
+      <c r="DI61" s="51"/>
+      <c r="DJ61" s="51"/>
+      <c r="DK61" s="51"/>
+      <c r="DL61" s="51"/>
+      <c r="DM61" s="51"/>
+      <c r="DN61" s="51"/>
+      <c r="DO61" s="51"/>
+      <c r="DP61" s="51"/>
+      <c r="DQ61" s="51"/>
+      <c r="DR61" s="51"/>
+      <c r="DS61" s="51"/>
+      <c r="DT61" s="51"/>
+      <c r="DU61" s="51"/>
+      <c r="DV61" s="51"/>
+      <c r="DW61" s="51"/>
+      <c r="DX61" s="51"/>
+      <c r="DY61" s="51"/>
+      <c r="DZ61" s="51"/>
+      <c r="EA61" s="51"/>
+      <c r="EB61" s="51"/>
+      <c r="EC61" s="51"/>
+      <c r="ED61" s="51"/>
+      <c r="EE61" s="51"/>
+      <c r="EF61" s="51"/>
+      <c r="EG61" s="51"/>
+      <c r="EH61" s="51"/>
+      <c r="EI61" s="51"/>
+      <c r="EJ61" s="51"/>
+      <c r="EK61" s="51"/>
+      <c r="EL61" s="51"/>
+      <c r="EM61" s="51"/>
+      <c r="EN61" s="51"/>
+      <c r="EO61" s="51"/>
+      <c r="EP61" s="51"/>
+      <c r="EQ61" s="51"/>
+      <c r="ER61" s="51"/>
+      <c r="ES61" s="51"/>
+      <c r="ET61" s="51"/>
+      <c r="EU61" s="51"/>
+      <c r="EV61" s="51"/>
+      <c r="EW61" s="51"/>
+      <c r="EX61" s="51"/>
+      <c r="EY61" s="51"/>
+      <c r="EZ61" s="51"/>
+      <c r="FA61" s="51"/>
+      <c r="FB61" s="51"/>
+      <c r="FC61" s="51"/>
+      <c r="FD61" s="51"/>
+      <c r="FE61" s="51"/>
+      <c r="FF61" s="51"/>
+      <c r="FG61" s="51"/>
+      <c r="FH61" s="51"/>
+      <c r="FI61" s="51"/>
+      <c r="FJ61" s="51"/>
+      <c r="FK61" s="51"/>
+      <c r="FL61" s="51"/>
+      <c r="FM61" s="51"/>
+      <c r="FN61" s="51"/>
+      <c r="FO61" s="51"/>
+      <c r="FP61" s="51"/>
+      <c r="FQ61" s="51"/>
+      <c r="FR61" s="51"/>
+      <c r="FS61" s="51"/>
+      <c r="FT61" s="51"/>
+      <c r="FU61" s="51"/>
+      <c r="FV61" s="51"/>
+      <c r="FW61" s="51"/>
+      <c r="FX61" s="51"/>
+      <c r="FY61" s="51"/>
+      <c r="FZ61" s="51"/>
+      <c r="GA61" s="51"/>
+      <c r="GB61" s="51"/>
+      <c r="GC61" s="51"/>
+      <c r="GD61" s="51"/>
+      <c r="GE61" s="51"/>
+      <c r="GF61" s="51"/>
+      <c r="GG61" s="51"/>
+      <c r="GH61" s="51"/>
+      <c r="GI61" s="51"/>
+      <c r="GJ61" s="51"/>
+      <c r="GK61" s="51"/>
+      <c r="GL61" s="51"/>
+      <c r="GM61" s="51"/>
+      <c r="GN61" s="51"/>
+      <c r="GO61" s="51"/>
+      <c r="GP61" s="51"/>
+      <c r="GQ61" s="51"/>
+      <c r="GR61" s="51"/>
+      <c r="GS61" s="51"/>
+      <c r="GT61" s="51"/>
+      <c r="GU61" s="51"/>
+      <c r="GV61" s="51"/>
+      <c r="GW61" s="51"/>
+      <c r="GX61" s="51"/>
+      <c r="GY61" s="51"/>
+      <c r="GZ61" s="51"/>
+      <c r="HA61" s="51"/>
+      <c r="HB61" s="51"/>
+      <c r="HC61" s="51"/>
+      <c r="HD61" s="51"/>
+      <c r="HE61" s="51"/>
+      <c r="HF61" s="51"/>
+      <c r="HG61" s="51"/>
+      <c r="HH61" s="51"/>
+      <c r="HI61" s="51"/>
+      <c r="HJ61" s="51"/>
+      <c r="HK61" s="51"/>
+      <c r="HL61" s="51"/>
+      <c r="HM61" s="51"/>
+      <c r="HN61" s="51"/>
+      <c r="HO61" s="51"/>
+      <c r="HP61" s="51"/>
+      <c r="HQ61" s="51"/>
+      <c r="HR61" s="51"/>
+      <c r="HS61" s="51"/>
+      <c r="HT61" s="51"/>
+      <c r="HU61" s="51"/>
+      <c r="HV61" s="51"/>
+      <c r="HW61" s="51"/>
+      <c r="HX61" s="51"/>
+      <c r="HY61" s="51"/>
+      <c r="HZ61" s="51"/>
+      <c r="IA61" s="51"/>
+      <c r="IB61" s="51"/>
+      <c r="IC61" s="51"/>
+      <c r="ID61" s="51"/>
+      <c r="IE61" s="51"/>
+      <c r="IF61" s="51"/>
+      <c r="IG61" s="51"/>
+      <c r="IH61" s="51"/>
+      <c r="II61" s="51"/>
+      <c r="IJ61" s="51"/>
+      <c r="IK61" s="51"/>
+      <c r="IL61" s="51"/>
+      <c r="IM61" s="51"/>
+      <c r="IN61" s="51"/>
+      <c r="IO61" s="51"/>
+      <c r="IP61" s="51"/>
+      <c r="IQ61" s="51"/>
+      <c r="IR61" s="51"/>
+      <c r="IS61" s="51"/>
+      <c r="IT61" s="51"/>
+      <c r="IU61" s="51"/>
+      <c r="IV61" s="51"/>
+      <c r="IW61" s="51"/>
+      <c r="IX61" s="51"/>
+    </row>
+    <row r="62" spans="1:1" customFormat="false">
       <c r="A62" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:258">
+    <row r="63" spans="1:1" customFormat="false">
       <c r="A63" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:258">
+    <row r="64" spans="1:1" customFormat="false">
       <c r="A64" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" customFormat="false">
       <c r="A65" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" customFormat="false">
       <c r="A66" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" customFormat="false">
       <c r="A67" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" customFormat="false">
       <c r="A68" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" customFormat="false">
       <c r="A69" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" customFormat="false">
       <c r="A70" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" customFormat="false">
       <c r="A71" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" customFormat="false">
       <c r="A72" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" customFormat="false">
       <c r="A73" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" customFormat="false">
       <c r="A74" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" customFormat="false">
       <c r="A75" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" customFormat="false">
       <c r="A76" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" customFormat="false">
       <c r="A77" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" customFormat="false">
       <c r="A78" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" customFormat="false">
       <c r="A79" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" customFormat="false">
       <c r="A80" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" customFormat="false">
       <c r="A81" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" customFormat="false">
       <c r="A82" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" customFormat="false">
       <c r="A83" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" customFormat="false">
       <c r="A84" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" customFormat="false">
       <c r="A85" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" customFormat="false">
       <c r="A86" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" customFormat="false">
       <c r="A87" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" customFormat="false">
       <c r="A88" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" customFormat="false">
       <c r="A89" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" customFormat="false">
       <c r="A90" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" customFormat="false">
       <c r="A91" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" customFormat="false">
       <c r="A92" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" customFormat="false">
       <c r="A93" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" customFormat="false">
       <c r="A94" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" customFormat="false">
       <c r="A95" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" customFormat="false">
       <c r="A96" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" customFormat="false">
       <c r="A97" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" customFormat="false">
       <c r="A98" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" customFormat="false">
       <c r="A99" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" customFormat="false">
       <c r="A100" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" customFormat="false">
       <c r="A101" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" customFormat="false">
       <c r="A102" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" customFormat="false">
       <c r="A103" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" customFormat="false">
       <c r="A104" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" customFormat="false">
       <c r="A105" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" customFormat="false">
       <c r="A106" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" customFormat="false">
       <c r="A107" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" customFormat="false">
       <c r="A108" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" customFormat="false">
       <c r="A109" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" customFormat="false">
       <c r="A110" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" customFormat="false">
       <c r="A111" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" customFormat="false">
       <c r="A112" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" customFormat="false">
       <c r="A113" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" customFormat="false">
       <c r="A114" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" customFormat="false">
       <c r="A115" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" customFormat="false">
       <c r="A116" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" customFormat="false">
       <c r="A117" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" customFormat="false">
       <c r="A118" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" customFormat="false">
       <c r="A119" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" customFormat="false">
       <c r="A120" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" customFormat="false">
       <c r="A121" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" customFormat="false">
       <c r="A122" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" customFormat="false">
       <c r="A123" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" customFormat="false">
       <c r="A124" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" customFormat="false">
       <c r="A125" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" customFormat="false">
       <c r="A126" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" customFormat="false">
       <c r="A127" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" customFormat="false">
       <c r="A128" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" customFormat="false">
       <c r="A129" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" customFormat="false">
       <c r="A130" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" customFormat="false">
       <c r="A131" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" customFormat="false">
       <c r="A132" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" customFormat="false">
       <c r="A133" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" customFormat="false">
       <c r="A134" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" customFormat="false">
       <c r="A135" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" customFormat="false">
       <c r="A136" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" customFormat="false">
       <c r="A137" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" customFormat="false">
       <c r="A138" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" customFormat="false">
       <c r="A139" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" customFormat="false">
       <c r="A140" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" customFormat="false">
       <c r="A141" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" customFormat="false">
       <c r="A142" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" customFormat="false">
       <c r="A143" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" customFormat="false">
       <c r="A144" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" customFormat="false">
       <c r="A145" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" customFormat="false">
       <c r="A146" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" customFormat="false">
       <c r="A147" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" customFormat="false">
       <c r="A148" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" customFormat="false">
       <c r="A149" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" customFormat="false">
       <c r="A150" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" customFormat="false">
       <c r="A151" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" customFormat="false">
       <c r="A152" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" customFormat="false">
       <c r="A153" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" customFormat="false">
       <c r="A154" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" customFormat="false">
       <c r="A155" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" customFormat="false">
       <c r="A156" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" customFormat="false">
       <c r="A157" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" customFormat="false">
       <c r="A158" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" customFormat="false">
       <c r="A159" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" customFormat="false">
       <c r="A160" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" customFormat="false">
       <c r="A161" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" customFormat="false">
       <c r="A162" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" customFormat="false">
       <c r="A163" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" customFormat="false">
       <c r="A164" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" customFormat="false">
       <c r="A165" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" customFormat="false">
       <c r="A166" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" customFormat="false">
       <c r="A167" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" customFormat="false">
       <c r="A168" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" customFormat="false">
       <c r="A169" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" customFormat="false">
       <c r="A170" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" customFormat="false">
       <c r="A171" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" customFormat="false">
       <c r="A172" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" customFormat="false">
       <c r="A173" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" customFormat="false">
       <c r="A174" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" customFormat="false">
       <c r="A175" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" customFormat="false">
       <c r="A176" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" customFormat="false">
       <c r="A177" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" customFormat="false">
       <c r="A178" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" customFormat="false">
       <c r="A179" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" customFormat="false">
       <c r="A180" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" customFormat="false">
       <c r="A181" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" customFormat="false">
       <c r="A182" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" customFormat="false">
       <c r="A183" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" customFormat="false">
       <c r="A184" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" customFormat="false">
       <c r="A185" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" customFormat="false">
       <c r="A186" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" customFormat="false">
       <c r="A187" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" customFormat="false">
       <c r="A188" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" customFormat="false">
       <c r="A189" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" customFormat="false">
       <c r="A190" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" customFormat="false">
       <c r="A191" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" customFormat="false">
       <c r="A192" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" customFormat="false">
       <c r="A193" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" customFormat="false">
       <c r="A194" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" customFormat="false">
       <c r="A195" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" customFormat="false">
       <c r="A196" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" customFormat="false">
       <c r="A197" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" customFormat="false">
       <c r="A198" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" customFormat="false">
       <c r="A199" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" customFormat="false">
       <c r="A200" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" customFormat="false">
       <c r="A201" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" customFormat="false">
       <c r="A202" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" customFormat="false">
       <c r="A203" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" customFormat="false">
       <c r="A204" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" customFormat="false">
       <c r="A205" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" customFormat="false">
       <c r="A206" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" customFormat="false">
       <c r="A207" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" customFormat="false">
       <c r="A208" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" customFormat="false">
       <c r="A209" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" customFormat="false">
       <c r="A210" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" customFormat="false">
       <c r="A211" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" customFormat="false">
       <c r="A212" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" customFormat="false">
       <c r="A213" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" customFormat="false">
       <c r="A214" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" customFormat="false">
       <c r="A215" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" customFormat="false">
       <c r="A216" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" customFormat="false">
       <c r="A217" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" customFormat="false">
       <c r="A218" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" customFormat="false">
       <c r="A219" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" customFormat="false">
       <c r="A220" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" customFormat="false">
       <c r="A221" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" customFormat="false">
       <c r="A222" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" customFormat="false">
       <c r="A223" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" customFormat="false">
       <c r="A224" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" customFormat="false">
       <c r="A225" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" customFormat="false">
       <c r="A226" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" customFormat="false">
       <c r="A227" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" customFormat="false">
       <c r="A228" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" customFormat="false">
       <c r="A229" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" customFormat="false">
       <c r="A230" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" customFormat="false">
       <c r="A231" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" customFormat="false">
       <c r="A232" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" customFormat="false">
       <c r="A233" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" customFormat="false">
       <c r="A234" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" customFormat="false">
       <c r="A235" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" customFormat="false">
       <c r="A236" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" customFormat="false">
       <c r="A237" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" customFormat="false">
       <c r="A238" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" customFormat="false">
       <c r="A239" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" customFormat="false">
       <c r="A240" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" customFormat="false">
       <c r="A241" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" customFormat="false">
       <c r="A242" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" customFormat="false">
       <c r="A243" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" customFormat="false">
       <c r="A244" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" customFormat="false">
       <c r="A245" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" customFormat="false">
       <c r="A246" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" customFormat="false">
       <c r="A247" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" customFormat="false">
       <c r="A248" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" customFormat="false">
       <c r="A249" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" customFormat="false">
       <c r="A250" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" customFormat="false">
       <c r="A251" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" customFormat="false">
       <c r="A252" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" customFormat="false">
       <c r="A253" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" customFormat="false">
       <c r="A254" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" customFormat="false">
       <c r="A255" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" customFormat="false">
       <c r="A256" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" customFormat="false">
       <c r="A257" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" customFormat="false">
       <c r="A258" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" customFormat="false">
       <c r="A259" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" customFormat="false">
       <c r="A260" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" customFormat="false">
       <c r="A261" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" customFormat="false">
       <c r="A262" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" customFormat="false">
       <c r="A263" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" customFormat="false">
       <c r="A264" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" customFormat="false">
       <c r="A265" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" customFormat="false">
       <c r="A266" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" customFormat="false">
       <c r="A267" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" customFormat="false">
       <c r="A268" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" customFormat="false">
       <c r="A269" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" customFormat="false">
       <c r="A270" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" customFormat="false">
       <c r="A271" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" customFormat="false">
       <c r="A272" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" customFormat="false">
       <c r="A273" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" customFormat="false">
       <c r="A274" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" customFormat="false">
       <c r="A275" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" customFormat="false">
       <c r="A276" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" customFormat="false">
       <c r="A277" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" customFormat="false">
       <c r="A278" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" customFormat="false">
       <c r="A279" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" customFormat="false">
       <c r="A280" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" customFormat="false">
       <c r="A281" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" customFormat="false">
       <c r="A282" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" customFormat="false">
       <c r="A283" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" customFormat="false">
       <c r="A284" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" customFormat="false">
       <c r="A285" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" customFormat="false">
       <c r="A286" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" customFormat="false">
       <c r="A287" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" customFormat="false">
       <c r="A288" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" customFormat="false">
       <c r="A289" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" customFormat="false">
       <c r="A290" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" customFormat="false">
       <c r="A291" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" customFormat="false">
       <c r="A292" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" customFormat="false">
       <c r="A293" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" customFormat="false">
       <c r="A294" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" customFormat="false">
       <c r="A295" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" customFormat="false">
       <c r="A296" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" customFormat="false">
       <c r="A297" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" customFormat="false">
       <c r="A298" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" customFormat="false">
       <c r="A299" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" customFormat="false">
       <c r="A300" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" customFormat="false">
       <c r="A301" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" customFormat="false">
       <c r="A302" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" customFormat="false">
       <c r="A303" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" customFormat="false">
       <c r="A304" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" customFormat="false">
       <c r="A305" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" customFormat="false">
       <c r="A306" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" customFormat="false">
       <c r="A307" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" customFormat="false">
       <c r="A308" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" customFormat="false">
       <c r="A309" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" customFormat="false">
       <c r="A310" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" customFormat="false">
       <c r="A311" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" customFormat="false">
       <c r="A312" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" customFormat="false">
       <c r="A313" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" customFormat="false">
       <c r="A314" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" customFormat="false">
       <c r="A315" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" customFormat="false">
       <c r="A316" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" customFormat="false">
       <c r="A317" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" customFormat="false">
       <c r="A318" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" customFormat="false">
       <c r="A319" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" customFormat="false">
       <c r="A320" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" customFormat="false">
       <c r="A321" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" customFormat="false">
       <c r="A322" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" customFormat="false">
       <c r="A323" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" customFormat="false">
       <c r="A324" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" customFormat="false">
       <c r="A325" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" customFormat="false">
       <c r="A326" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" customFormat="false">
       <c r="A327" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" customFormat="false">
       <c r="A328" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" customFormat="false">
       <c r="A329" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" customFormat="false">
       <c r="A330" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" customFormat="false">
       <c r="A331" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" customFormat="false">
       <c r="A332" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" customFormat="false">
       <c r="A333" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" customFormat="false">
       <c r="A334" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" customFormat="false">
       <c r="A335" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" customFormat="false">
       <c r="A336" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" customFormat="false">
       <c r="A337" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" customFormat="false">
       <c r="A338" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" customFormat="false">
       <c r="A339" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" customFormat="false">
       <c r="A340" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" customFormat="false">
       <c r="A341" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" customFormat="false">
       <c r="A342" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" customFormat="false">
       <c r="A343" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" customFormat="false">
       <c r="A344" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" customFormat="false">
       <c r="A345" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" customFormat="false">
       <c r="A346" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" customFormat="false">
       <c r="A347" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" customFormat="false">
       <c r="A348" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" customFormat="false">
       <c r="A349" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" customFormat="false">
       <c r="A350" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" customFormat="false">
       <c r="A351" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" customFormat="false">
       <c r="A352" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" customFormat="false">
       <c r="A353" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" customFormat="false">
       <c r="A354" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" customFormat="false">
       <c r="A355" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" customFormat="false">
       <c r="A356" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" customFormat="false">
       <c r="A357" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" customFormat="false">
       <c r="A358" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" customFormat="false">
       <c r="A359" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" customFormat="false">
       <c r="A360" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" customFormat="false">
       <c r="A361" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" customFormat="false">
       <c r="A362" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" customFormat="false">
       <c r="A363" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" customFormat="false">
       <c r="A364" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" customFormat="false">
       <c r="A365" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" customFormat="false">
       <c r="A366" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" customFormat="false">
       <c r="A367" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" customFormat="false">
       <c r="A368" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" customFormat="false">
       <c r="A369" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" customFormat="false">
       <c r="A370" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" customFormat="false">
       <c r="A371" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" customFormat="false">
       <c r="A372" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" customFormat="false">
       <c r="A373" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" customFormat="false">
       <c r="A374" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" customFormat="false">
       <c r="A375" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" customFormat="false">
       <c r="A376" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" customFormat="false">
       <c r="A377" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" customFormat="false">
       <c r="A378" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" customFormat="false">
       <c r="A379" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" customFormat="false">
       <c r="A380" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" customFormat="false">
       <c r="A381" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" customFormat="false">
       <c r="A382" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" customFormat="false">
       <c r="A383" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" customFormat="false">
       <c r="A384" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" customFormat="false">
       <c r="A385" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" customFormat="false">
       <c r="A386" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" customFormat="false">
       <c r="A387" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" customFormat="false">
       <c r="A388" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" customFormat="false">
       <c r="A389" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" customFormat="false">
       <c r="A390" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" customFormat="false">
       <c r="A391" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" customFormat="false">
       <c r="A392" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" customFormat="false">
       <c r="A393" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" customFormat="false">
       <c r="A394" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" customFormat="false">
       <c r="A395" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" customFormat="false">
       <c r="A396" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" customFormat="false">
       <c r="A397" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" customFormat="false">
       <c r="A398" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" customFormat="false">
       <c r="A399" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" customFormat="false">
       <c r="A400" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:1" customFormat="false">
       <c r="A401" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:1" customFormat="false">
       <c r="A402" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:1" customFormat="false">
       <c r="A403" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:1" customFormat="false">
       <c r="A404" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:1" customFormat="false">
       <c r="A405" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:1" customFormat="false">
       <c r="A406" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:1" customFormat="false">
       <c r="A407" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:1" customFormat="false">
       <c r="A408" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:1" customFormat="false">
       <c r="A409" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:1" customFormat="false">
       <c r="A410" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:1" customFormat="false">
       <c r="A411" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:1" customFormat="false">
       <c r="A412" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:1" customFormat="false">
       <c r="A413" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:1" customFormat="false">
       <c r="A414" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:1" customFormat="false">
       <c r="A415" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B415" s="37"/>
-      <c r="C415" s="37"/>
-      <c r="D415" s="38"/>
-      <c r="E415" s="38"/>
-      <c r="F415" s="37"/>
-      <c r="G415" s="39"/>
-      <c r="H415" s="37"/>
-      <c r="I415" s="38"/>
-    </row>
-    <row r="416" spans="1:9">
+    </row>
+    <row r="416" spans="1:1" customFormat="false">
       <c r="A416" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B416" s="37"/>
-      <c r="C416" s="37"/>
-      <c r="D416" s="38"/>
-      <c r="E416" s="38"/>
-      <c r="F416" s="37"/>
-      <c r="G416" s="39"/>
-      <c r="H416" s="37"/>
-      <c r="I416" s="38"/>
-    </row>
-    <row r="417" spans="1:9">
+    </row>
+    <row r="417" spans="1:1" customFormat="false">
       <c r="A417" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B417" s="37"/>
-      <c r="C417" s="37"/>
-      <c r="D417" s="38"/>
-      <c r="E417" s="38"/>
-      <c r="F417" s="37"/>
-      <c r="G417" s="39"/>
-      <c r="H417" s="37"/>
-      <c r="I417" s="38"/>
-    </row>
-    <row r="418" spans="1:9">
+    </row>
+    <row r="418" spans="1:1" customFormat="false">
       <c r="A418" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B418" s="37"/>
-      <c r="C418" s="37"/>
-      <c r="D418" s="38"/>
-      <c r="E418" s="38"/>
-      <c r="F418" s="37"/>
-      <c r="G418" s="39"/>
-      <c r="H418" s="37"/>
-      <c r="I418" s="38"/>
-    </row>
-    <row r="419" spans="1:9">
+    </row>
+    <row r="419" spans="1:1" customFormat="false">
       <c r="A419" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B419" s="37"/>
-      <c r="C419" s="37"/>
-      <c r="D419" s="38"/>
-      <c r="E419" s="38"/>
-      <c r="F419" s="37"/>
-      <c r="G419" s="39"/>
-      <c r="H419" s="37"/>
-      <c r="I419" s="38"/>
-    </row>
-    <row r="420" spans="1:9">
-      <c r="A420" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9">
-      <c r="A421" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9">
-      <c r="A422" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9">
-      <c r="A423" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9">
-      <c r="A424" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9">
-      <c r="A425" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9">
-      <c r="A426" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9">
-      <c r="A427" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9">
-      <c r="A428" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9">
-      <c r="A429" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9">
+    </row>
+    <row r="420" spans="1:9" customFormat="false">
+      <c r="A420" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B420" s="37"/>
+      <c r="C420" s="37"/>
+      <c r="D420" s="38"/>
+      <c r="E420" s="38"/>
+      <c r="F420" s="37"/>
+      <c r="G420" s="39"/>
+      <c r="H420" s="37"/>
+      <c r="I420" s="38"/>
+    </row>
+    <row r="421" spans="1:9" customFormat="false">
+      <c r="A421" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B421" s="37"/>
+      <c r="C421" s="37"/>
+      <c r="D421" s="38"/>
+      <c r="E421" s="38"/>
+      <c r="F421" s="37"/>
+      <c r="G421" s="39"/>
+      <c r="H421" s="37"/>
+      <c r="I421" s="38"/>
+    </row>
+    <row r="422" spans="1:9" customFormat="false">
+      <c r="A422" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B422" s="37"/>
+      <c r="C422" s="37"/>
+      <c r="D422" s="38"/>
+      <c r="E422" s="38"/>
+      <c r="F422" s="37"/>
+      <c r="G422" s="39"/>
+      <c r="H422" s="37"/>
+      <c r="I422" s="38"/>
+    </row>
+    <row r="423" spans="1:9" customFormat="false">
+      <c r="A423" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B423" s="37"/>
+      <c r="C423" s="37"/>
+      <c r="D423" s="38"/>
+      <c r="E423" s="38"/>
+      <c r="F423" s="37"/>
+      <c r="G423" s="39"/>
+      <c r="H423" s="37"/>
+      <c r="I423" s="38"/>
+    </row>
+    <row r="424" spans="1:9" customFormat="false">
+      <c r="A424" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B424" s="37"/>
+      <c r="C424" s="37"/>
+      <c r="D424" s="38"/>
+      <c r="E424" s="38"/>
+      <c r="F424" s="37"/>
+      <c r="G424" s="39"/>
+      <c r="H424" s="37"/>
+      <c r="I424" s="38"/>
+    </row>
+    <row r="425" spans="1:1" customFormat="false">
+      <c r="A425" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" customFormat="false">
+      <c r="A426" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" customFormat="false">
+      <c r="A427" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" customFormat="false">
+      <c r="A428" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" customFormat="false">
+      <c r="A429" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" customFormat="false">
       <c r="A430" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:1" customFormat="false">
       <c r="A431" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:1" customFormat="false">
       <c r="A432" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" customFormat="false">
       <c r="A433" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" customFormat="false">
       <c r="A434" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" customFormat="false">
       <c r="A435" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" customFormat="false">
       <c r="A436" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" customFormat="false">
       <c r="A437" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" customFormat="false">
       <c r="A438" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" customFormat="false">
       <c r="A439" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" customFormat="false">
       <c r="A440" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" customFormat="false">
       <c r="A441" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" customFormat="false">
       <c r="A442" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" customFormat="false">
       <c r="A443" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" customFormat="false">
       <c r="A444" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="514" spans="1:1">
-      <c r="A514" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1">
-      <c r="A515" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1">
-      <c r="A516" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1">
-      <c r="A517" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1">
-      <c r="A518" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1">
+    <row r="445" spans="1:1" customFormat="false">
+      <c r="A445" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" customFormat="false">
+      <c r="A446" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" customFormat="false">
+      <c r="A447" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" customFormat="false">
+      <c r="A448" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" customFormat="false">
+      <c r="A449" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" customFormat="false">
       <c r="A519" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:1" customFormat="false">
       <c r="A520" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" spans="1:1" customFormat="false">
       <c r="A521" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" spans="1:1" customFormat="false">
       <c r="A522" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" spans="1:1" customFormat="false">
       <c r="A523" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" spans="1:1" customFormat="false">
       <c r="A524" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" spans="1:1" customFormat="false">
       <c r="A525" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" spans="1:1" customFormat="false">
       <c r="A526" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" spans="1:1" customFormat="false">
       <c r="A527" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" spans="1:1" customFormat="false">
       <c r="A528" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" spans="1:1" customFormat="false">
       <c r="A529" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" spans="1:1" customFormat="false">
       <c r="A530" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" spans="1:1" customFormat="false">
       <c r="A531" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" spans="1:1" customFormat="false">
       <c r="A532" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" spans="1:1" customFormat="false">
       <c r="A533" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" spans="1:1" customFormat="false">
       <c r="A534" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" spans="1:1" customFormat="false">
       <c r="A535" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" spans="1:1" customFormat="false">
       <c r="A536" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" spans="1:1" customFormat="false">
       <c r="A537" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" spans="1:1" customFormat="false">
       <c r="A538" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" spans="1:1" customFormat="false">
       <c r="A539" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" spans="1:1" customFormat="false">
       <c r="A540" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" spans="1:1" customFormat="false">
       <c r="A541" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" spans="1:1" customFormat="false">
       <c r="A542" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" spans="1:1" customFormat="false">
       <c r="A543" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" spans="1:1" customFormat="false">
       <c r="A544" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="545" spans="1:9">
+    <row r="545" spans="1:1" customFormat="false">
       <c r="A545" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="549" spans="1:9">
-      <c r="B549" s="37"/>
-      <c r="C549" s="37"/>
-      <c r="D549" s="38"/>
-      <c r="E549" s="38"/>
-      <c r="F549" s="37"/>
-      <c r="G549" s="39"/>
-      <c r="H549" s="37"/>
-      <c r="I549" s="38"/>
-    </row>
-    <row r="550" spans="1:9">
-      <c r="B550" s="37"/>
-      <c r="C550" s="37"/>
-      <c r="D550" s="38"/>
-      <c r="E550" s="38"/>
-      <c r="F550" s="37"/>
-      <c r="G550" s="39"/>
-      <c r="H550" s="37"/>
-      <c r="I550" s="38"/>
-    </row>
-    <row r="551" spans="1:9">
-      <c r="B551" s="37"/>
-      <c r="C551" s="37"/>
-      <c r="D551" s="38"/>
-      <c r="E551" s="38"/>
-      <c r="F551" s="37"/>
-      <c r="G551" s="39"/>
-      <c r="H551" s="37"/>
-      <c r="I551" s="38"/>
-    </row>
-    <row r="552" spans="1:9">
-      <c r="B552" s="37"/>
-      <c r="C552" s="37"/>
-      <c r="D552" s="38"/>
-      <c r="E552" s="38"/>
-      <c r="F552" s="37"/>
-      <c r="G552" s="39"/>
-      <c r="H552" s="37"/>
-      <c r="I552" s="38"/>
-    </row>
-    <row r="553" spans="1:9">
-      <c r="B553" s="37"/>
-      <c r="C553" s="37"/>
-      <c r="D553" s="38"/>
-      <c r="E553" s="38"/>
-      <c r="F553" s="37"/>
-      <c r="G553" s="39"/>
-      <c r="H553" s="37"/>
-      <c r="I553" s="38"/>
-    </row>
-    <row r="554" spans="1:9">
-      <c r="A554" s="36"/>
+    <row r="546" spans="1:1" customFormat="false">
+      <c r="A546" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" customFormat="false">
+      <c r="A547" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" customFormat="false">
+      <c r="A548" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" customFormat="false">
+      <c r="A549" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" customFormat="false">
+      <c r="A550" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="554" spans="2:9" customFormat="false">
       <c r="B554" s="37"/>
       <c r="C554" s="37"/>
       <c r="D554" s="38"/>
@@ -10835,8 +12174,7 @@
       <c r="H554" s="37"/>
       <c r="I554" s="38"/>
     </row>
-    <row r="555" spans="1:9">
-      <c r="A555" s="36"/>
+    <row r="555" spans="2:9" customFormat="false">
       <c r="B555" s="37"/>
       <c r="C555" s="37"/>
       <c r="D555" s="38"/>
@@ -10846,8 +12184,7 @@
       <c r="H555" s="37"/>
       <c r="I555" s="38"/>
     </row>
-    <row r="556" spans="1:9">
-      <c r="A556" s="36"/>
+    <row r="556" spans="2:9" customFormat="false">
       <c r="B556" s="37"/>
       <c r="C556" s="37"/>
       <c r="D556" s="38"/>
@@ -10857,65 +12194,61 @@
       <c r="H556" s="37"/>
       <c r="I556" s="38"/>
     </row>
-    <row r="557" spans="1:9">
-      <c r="A557" s="36"/>
-      <c r="B557" s="33"/>
-      <c r="C557" s="33"/>
-      <c r="D557" s="34"/>
-      <c r="E557" s="34"/>
-      <c r="F557" s="33"/>
-      <c r="G557" s="35"/>
-      <c r="H557" s="33"/>
-      <c r="I557" s="34"/>
-    </row>
-    <row r="558" spans="1:9">
-      <c r="A558" s="36"/>
-      <c r="B558" s="33"/>
-      <c r="C558" s="33"/>
-      <c r="D558" s="34"/>
-      <c r="E558" s="34"/>
-      <c r="F558" s="33"/>
-      <c r="G558" s="35"/>
-      <c r="H558" s="33"/>
-      <c r="I558" s="34"/>
-    </row>
-    <row r="559" spans="1:9">
+    <row r="557" spans="2:9" customFormat="false">
+      <c r="B557" s="37"/>
+      <c r="C557" s="37"/>
+      <c r="D557" s="38"/>
+      <c r="E557" s="38"/>
+      <c r="F557" s="37"/>
+      <c r="G557" s="39"/>
+      <c r="H557" s="37"/>
+      <c r="I557" s="38"/>
+    </row>
+    <row r="558" spans="2:9" customFormat="false">
+      <c r="B558" s="37"/>
+      <c r="C558" s="37"/>
+      <c r="D558" s="38"/>
+      <c r="E558" s="38"/>
+      <c r="F558" s="37"/>
+      <c r="G558" s="39"/>
+      <c r="H558" s="37"/>
+      <c r="I558" s="38"/>
+    </row>
+    <row r="559" spans="1:9" customFormat="false">
       <c r="A559" s="36"/>
-      <c r="B559" s="33"/>
-      <c r="C559" s="33"/>
-      <c r="D559" s="34"/>
-      <c r="E559" s="34"/>
-      <c r="F559" s="33"/>
-      <c r="G559" s="35"/>
-      <c r="H559" s="33"/>
-      <c r="I559" s="34"/>
-    </row>
-    <row r="560" spans="1:9">
+      <c r="B559" s="37"/>
+      <c r="C559" s="37"/>
+      <c r="D559" s="38"/>
+      <c r="E559" s="38"/>
+      <c r="F559" s="37"/>
+      <c r="G559" s="39"/>
+      <c r="H559" s="37"/>
+      <c r="I559" s="38"/>
+    </row>
+    <row r="560" spans="1:9" customFormat="false">
       <c r="A560" s="36"/>
-      <c r="B560" s="33"/>
-      <c r="C560" s="33"/>
-      <c r="D560" s="34"/>
-      <c r="E560" s="34"/>
-      <c r="F560" s="33"/>
-      <c r="G560" s="35"/>
-      <c r="H560" s="33"/>
-      <c r="I560" s="34"/>
-    </row>
-    <row r="561" spans="1:9">
+      <c r="B560" s="37"/>
+      <c r="C560" s="37"/>
+      <c r="D560" s="38"/>
+      <c r="E560" s="38"/>
+      <c r="F560" s="37"/>
+      <c r="G560" s="39"/>
+      <c r="H560" s="37"/>
+      <c r="I560" s="38"/>
+    </row>
+    <row r="561" spans="1:9" customFormat="false">
       <c r="A561" s="36"/>
-      <c r="B561" s="33"/>
-      <c r="C561" s="33"/>
-      <c r="D561" s="34"/>
-      <c r="E561" s="34"/>
-      <c r="F561" s="33"/>
-      <c r="G561" s="35"/>
-      <c r="H561" s="33"/>
-      <c r="I561" s="34"/>
-    </row>
-    <row r="562" spans="1:9">
-      <c r="A562" s="32" t="s">
-        <v>31</v>
-      </c>
+      <c r="B561" s="37"/>
+      <c r="C561" s="37"/>
+      <c r="D561" s="38"/>
+      <c r="E561" s="38"/>
+      <c r="F561" s="37"/>
+      <c r="G561" s="39"/>
+      <c r="H561" s="37"/>
+      <c r="I561" s="38"/>
+    </row>
+    <row r="562" spans="1:9" customFormat="false">
+      <c r="A562" s="36"/>
       <c r="B562" s="33"/>
       <c r="C562" s="33"/>
       <c r="D562" s="34"/>
@@ -10925,10 +12258,8 @@
       <c r="H562" s="33"/>
       <c r="I562" s="34"/>
     </row>
-    <row r="563" spans="1:9">
-      <c r="A563" s="32" t="s">
-        <v>31</v>
-      </c>
+    <row r="563" spans="1:9" customFormat="false">
+      <c r="A563" s="36"/>
       <c r="B563" s="33"/>
       <c r="C563" s="33"/>
       <c r="D563" s="34"/>
@@ -10938,10 +12269,8 @@
       <c r="H563" s="33"/>
       <c r="I563" s="34"/>
     </row>
-    <row r="564" spans="1:9">
-      <c r="A564" s="32" t="s">
-        <v>31</v>
-      </c>
+    <row r="564" spans="1:9" customFormat="false">
+      <c r="A564" s="36"/>
       <c r="B564" s="33"/>
       <c r="C564" s="33"/>
       <c r="D564" s="34"/>
@@ -10951,73 +12280,69 @@
       <c r="H564" s="33"/>
       <c r="I564" s="34"/>
     </row>
-    <row r="565" spans="1:9">
-      <c r="A565" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B565" s="41"/>
-      <c r="C565" s="41"/>
-      <c r="D565" s="42"/>
-      <c r="E565" s="42"/>
-      <c r="F565" s="41"/>
-      <c r="G565" s="43"/>
-      <c r="H565" s="41"/>
-      <c r="I565" s="42"/>
-    </row>
-    <row r="566" spans="1:9">
-      <c r="A566" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B566" s="41"/>
-      <c r="C566" s="41"/>
-      <c r="D566" s="42"/>
-      <c r="E566" s="42"/>
-      <c r="F566" s="41"/>
-      <c r="G566" s="43"/>
-      <c r="H566" s="41"/>
-      <c r="I566" s="42"/>
-    </row>
-    <row r="567" spans="1:9">
+    <row r="565" spans="1:9" customFormat="false">
+      <c r="A565" s="36"/>
+      <c r="B565" s="33"/>
+      <c r="C565" s="33"/>
+      <c r="D565" s="34"/>
+      <c r="E565" s="34"/>
+      <c r="F565" s="33"/>
+      <c r="G565" s="35"/>
+      <c r="H565" s="33"/>
+      <c r="I565" s="34"/>
+    </row>
+    <row r="566" spans="1:9" customFormat="false">
+      <c r="A566" s="36"/>
+      <c r="B566" s="33"/>
+      <c r="C566" s="33"/>
+      <c r="D566" s="34"/>
+      <c r="E566" s="34"/>
+      <c r="F566" s="33"/>
+      <c r="G566" s="35"/>
+      <c r="H566" s="33"/>
+      <c r="I566" s="34"/>
+    </row>
+    <row r="567" spans="1:9" customFormat="false">
       <c r="A567" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B567" s="41"/>
-      <c r="C567" s="41"/>
-      <c r="D567" s="42"/>
-      <c r="E567" s="42"/>
-      <c r="F567" s="41"/>
-      <c r="G567" s="43"/>
-      <c r="H567" s="41"/>
-      <c r="I567" s="42"/>
-    </row>
-    <row r="568" spans="1:9">
+      <c r="B567" s="33"/>
+      <c r="C567" s="33"/>
+      <c r="D567" s="34"/>
+      <c r="E567" s="34"/>
+      <c r="F567" s="33"/>
+      <c r="G567" s="35"/>
+      <c r="H567" s="33"/>
+      <c r="I567" s="34"/>
+    </row>
+    <row r="568" spans="1:9" customFormat="false">
       <c r="A568" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B568" s="41"/>
-      <c r="C568" s="41"/>
-      <c r="D568" s="42"/>
-      <c r="E568" s="42"/>
-      <c r="F568" s="41"/>
-      <c r="G568" s="43"/>
-      <c r="H568" s="41"/>
-      <c r="I568" s="42"/>
-    </row>
-    <row r="569" spans="1:9">
+      <c r="B568" s="33"/>
+      <c r="C568" s="33"/>
+      <c r="D568" s="34"/>
+      <c r="E568" s="34"/>
+      <c r="F568" s="33"/>
+      <c r="G568" s="35"/>
+      <c r="H568" s="33"/>
+      <c r="I568" s="34"/>
+    </row>
+    <row r="569" spans="1:9" customFormat="false">
       <c r="A569" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B569" s="41"/>
-      <c r="C569" s="41"/>
-      <c r="D569" s="42"/>
-      <c r="E569" s="42"/>
-      <c r="F569" s="41"/>
-      <c r="G569" s="43"/>
-      <c r="H569" s="41"/>
-      <c r="I569" s="42"/>
-    </row>
-    <row r="570" spans="1:9">
-      <c r="A570" s="40" t="s">
+      <c r="B569" s="33"/>
+      <c r="C569" s="33"/>
+      <c r="D569" s="34"/>
+      <c r="E569" s="34"/>
+      <c r="F569" s="33"/>
+      <c r="G569" s="35"/>
+      <c r="H569" s="33"/>
+      <c r="I569" s="34"/>
+    </row>
+    <row r="570" spans="1:9" customFormat="false">
+      <c r="A570" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B570" s="41"/>
@@ -11029,8 +12354,8 @@
       <c r="H570" s="41"/>
       <c r="I570" s="42"/>
     </row>
-    <row r="571" spans="1:9">
-      <c r="A571" s="40" t="s">
+    <row r="571" spans="1:9" customFormat="false">
+      <c r="A571" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B571" s="41"/>
@@ -11042,8 +12367,8 @@
       <c r="H571" s="41"/>
       <c r="I571" s="42"/>
     </row>
-    <row r="572" spans="1:9">
-      <c r="A572" s="40" t="s">
+    <row r="572" spans="1:9" customFormat="false">
+      <c r="A572" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B572" s="41"/>
@@ -11055,522 +12380,537 @@
       <c r="H572" s="41"/>
       <c r="I572" s="42"/>
     </row>
-    <row r="573" spans="1:9">
-      <c r="A573" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="574" spans="1:9">
-      <c r="A574" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="575" spans="1:9">
+    <row r="573" spans="1:9" customFormat="false">
+      <c r="A573" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B573" s="41"/>
+      <c r="C573" s="41"/>
+      <c r="D573" s="42"/>
+      <c r="E573" s="42"/>
+      <c r="F573" s="41"/>
+      <c r="G573" s="43"/>
+      <c r="H573" s="41"/>
+      <c r="I573" s="42"/>
+    </row>
+    <row r="574" spans="1:9" customFormat="false">
+      <c r="A574" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B574" s="41"/>
+      <c r="C574" s="41"/>
+      <c r="D574" s="42"/>
+      <c r="E574" s="42"/>
+      <c r="F574" s="41"/>
+      <c r="G574" s="43"/>
+      <c r="H574" s="41"/>
+      <c r="I574" s="42"/>
+    </row>
+    <row r="575" spans="1:9" customFormat="false">
       <c r="A575" s="40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="576" spans="1:9">
+      <c r="B575" s="41"/>
+      <c r="C575" s="41"/>
+      <c r="D575" s="42"/>
+      <c r="E575" s="42"/>
+      <c r="F575" s="41"/>
+      <c r="G575" s="43"/>
+      <c r="H575" s="41"/>
+      <c r="I575" s="42"/>
+    </row>
+    <row r="576" spans="1:9" customFormat="false">
       <c r="A576" s="40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="577" spans="1:1">
+      <c r="B576" s="41"/>
+      <c r="C576" s="41"/>
+      <c r="D576" s="42"/>
+      <c r="E576" s="42"/>
+      <c r="F576" s="41"/>
+      <c r="G576" s="43"/>
+      <c r="H576" s="41"/>
+      <c r="I576" s="42"/>
+    </row>
+    <row r="577" spans="1:9" customFormat="false">
       <c r="A577" s="40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="578" spans="1:1">
-      <c r="A578" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1">
-      <c r="A579" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1">
-      <c r="A580" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1">
-      <c r="A581" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1">
-      <c r="A582" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1">
+      <c r="B577" s="41"/>
+      <c r="C577" s="41"/>
+      <c r="D577" s="42"/>
+      <c r="E577" s="42"/>
+      <c r="F577" s="41"/>
+      <c r="G577" s="43"/>
+      <c r="H577" s="41"/>
+      <c r="I577" s="42"/>
+    </row>
+    <row r="578" spans="1:1" customFormat="false">
+      <c r="A578" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" customFormat="false">
+      <c r="A579" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" customFormat="false">
+      <c r="A580" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" customFormat="false">
+      <c r="A581" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" customFormat="false">
+      <c r="A582" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" customFormat="false">
       <c r="A583" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" spans="1:1" customFormat="false">
       <c r="A584" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" spans="1:1" customFormat="false">
       <c r="A585" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" spans="1:1" customFormat="false">
       <c r="A586" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" spans="1:1" customFormat="false">
       <c r="A587" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" spans="1:1" customFormat="false">
       <c r="A588" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" spans="1:1" customFormat="false">
       <c r="A589" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" spans="1:1" customFormat="false">
       <c r="A590" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" spans="1:1" customFormat="false">
       <c r="A591" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" spans="1:1" customFormat="false">
       <c r="A592" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" spans="1:1" customFormat="false">
       <c r="A593" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" spans="1:1" customFormat="false">
       <c r="A594" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" spans="1:1" customFormat="false">
       <c r="A595" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" spans="1:1" customFormat="false">
       <c r="A596" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" spans="1:1" customFormat="false">
       <c r="A597" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" spans="1:1" customFormat="false">
       <c r="A598" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" spans="1:1" customFormat="false">
       <c r="A599" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" spans="1:1" customFormat="false">
       <c r="A600" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" spans="1:1" customFormat="false">
       <c r="A601" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" spans="1:1" customFormat="false">
       <c r="A602" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" spans="1:1" customFormat="false">
       <c r="A603" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" spans="1:1" customFormat="false">
       <c r="A604" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" spans="1:1" customFormat="false">
       <c r="A605" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" spans="1:1" customFormat="false">
       <c r="A606" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" spans="1:1" customFormat="false">
       <c r="A607" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" spans="1:1" customFormat="false">
       <c r="A608" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" spans="1:1" customFormat="false">
       <c r="A609" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" spans="1:1" customFormat="false">
       <c r="A610" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" spans="1:1" customFormat="false">
       <c r="A611" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" spans="1:1" customFormat="false">
       <c r="A612" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" spans="1:1" customFormat="false">
       <c r="A613" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" spans="1:1" customFormat="false">
       <c r="A614" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" spans="1:1" customFormat="false">
       <c r="A615" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" spans="1:1" customFormat="false">
       <c r="A616" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" spans="1:1" customFormat="false">
       <c r="A617" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" spans="1:1" customFormat="false">
       <c r="A618" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" spans="1:1" customFormat="false">
       <c r="A619" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" spans="1:1" customFormat="false">
       <c r="A620" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" spans="1:1" customFormat="false">
       <c r="A621" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" spans="1:1" customFormat="false">
       <c r="A622" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" spans="1:1" customFormat="false">
       <c r="A623" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" spans="1:1" customFormat="false">
       <c r="A624" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" spans="1:1" customFormat="false">
       <c r="A625" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" spans="1:1" customFormat="false">
       <c r="A626" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" spans="1:1" customFormat="false">
       <c r="A627" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" spans="1:1" customFormat="false">
       <c r="A628" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" spans="1:1" customFormat="false">
       <c r="A629" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" spans="1:1" customFormat="false">
       <c r="A630" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" spans="1:1" customFormat="false">
       <c r="A631" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" spans="1:1" customFormat="false">
       <c r="A632" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" spans="1:1" customFormat="false">
       <c r="A633" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" spans="1:1" customFormat="false">
       <c r="A634" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" spans="1:1" customFormat="false">
       <c r="A635" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" spans="1:1" customFormat="false">
       <c r="A636" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" spans="1:1" customFormat="false">
       <c r="A637" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" spans="1:1" customFormat="false">
       <c r="A638" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" spans="1:1" customFormat="false">
       <c r="A639" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" spans="1:1" customFormat="false">
       <c r="A640" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" spans="1:1" customFormat="false">
       <c r="A641" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" spans="1:1" customFormat="false">
       <c r="A642" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" spans="1:1" customFormat="false">
       <c r="A643" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" spans="1:1" customFormat="false">
       <c r="A644" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" spans="1:1" customFormat="false">
       <c r="A645" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" spans="1:1" customFormat="false">
       <c r="A646" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" spans="1:1" customFormat="false">
       <c r="A647" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" spans="1:1" customFormat="false">
       <c r="A648" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" spans="1:1" customFormat="false">
       <c r="A649" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="658" spans="1:1">
-      <c r="A658" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1">
-      <c r="A659" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1">
-      <c r="A660" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1">
-      <c r="A661" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1">
-      <c r="A662" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1">
+    <row r="650" spans="1:1" customFormat="false">
+      <c r="A650" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" customFormat="false">
+      <c r="A651" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" customFormat="false">
+      <c r="A652" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" customFormat="false">
+      <c r="A653" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" customFormat="false">
+      <c r="A654" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" customFormat="false">
       <c r="A663" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" spans="1:1" customFormat="false">
       <c r="A664" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" spans="1:1" customFormat="false">
       <c r="A665" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" spans="1:1" customFormat="false">
       <c r="A666" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" spans="1:1" customFormat="false">
       <c r="A667" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" spans="1:1" customFormat="false">
       <c r="A668" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" spans="1:1" customFormat="false">
       <c r="A669" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" spans="1:1" customFormat="false">
       <c r="A670" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" spans="1:1" customFormat="false">
       <c r="A671" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" spans="1:1" customFormat="false">
       <c r="A672" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" spans="1:1" customFormat="false">
       <c r="A673" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="757" spans="2:9" ht="21">
-      <c r="B757" s="19"/>
-      <c r="C757" s="20"/>
-      <c r="D757" s="21"/>
-      <c r="E757" s="21"/>
-      <c r="F757" s="20"/>
-      <c r="G757" s="23"/>
-      <c r="H757" s="19"/>
-      <c r="I757" s="26"/>
-    </row>
-    <row r="758" spans="2:9" ht="21">
-      <c r="B758" s="19"/>
-      <c r="C758" s="20"/>
-      <c r="D758" s="21"/>
-      <c r="E758" s="21"/>
-      <c r="F758" s="20"/>
-      <c r="G758" s="23"/>
-      <c r="H758" s="19"/>
-      <c r="I758" s="26"/>
-    </row>
-    <row r="759" spans="2:9" ht="21">
-      <c r="B759" s="19"/>
-      <c r="C759" s="20"/>
-      <c r="D759" s="21"/>
-      <c r="E759" s="21"/>
-      <c r="F759" s="20"/>
-      <c r="G759" s="23"/>
-      <c r="H759" s="19"/>
-      <c r="I759" s="26"/>
-    </row>
-    <row r="760" spans="2:9" ht="21">
-      <c r="B760" s="19"/>
-      <c r="C760" s="20"/>
-      <c r="D760" s="21"/>
-      <c r="E760" s="21"/>
-      <c r="F760" s="20"/>
-      <c r="G760" s="23"/>
-      <c r="H760" s="19"/>
-      <c r="I760" s="26"/>
-    </row>
-    <row r="761" spans="2:9" ht="21">
-      <c r="B761" s="19"/>
-      <c r="C761" s="20"/>
-      <c r="D761" s="21"/>
-      <c r="E761" s="21"/>
-      <c r="F761" s="20"/>
-      <c r="G761" s="23"/>
-      <c r="H761" s="19"/>
-      <c r="I761" s="26"/>
-    </row>
-    <row r="762" spans="2:9" ht="21">
+    <row r="674" spans="1:1" customFormat="false">
+      <c r="A674" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" customFormat="false">
+      <c r="A675" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" customFormat="false">
+      <c r="A676" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" customFormat="false">
+      <c r="A677" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" customFormat="false">
+      <c r="A678" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="762" spans="2:9" customFormat="false" ht="21">
       <c r="B762" s="19"/>
       <c r="C762" s="20"/>
       <c r="D762" s="21"/>
@@ -11580,7 +12920,7 @@
       <c r="H762" s="19"/>
       <c r="I762" s="26"/>
     </row>
-    <row r="763" spans="2:9" ht="21">
+    <row r="763" spans="2:9" customFormat="false" ht="21">
       <c r="B763" s="19"/>
       <c r="C763" s="20"/>
       <c r="D763" s="21"/>
@@ -11590,7 +12930,7 @@
       <c r="H763" s="19"/>
       <c r="I763" s="26"/>
     </row>
-    <row r="764" spans="2:9" ht="21">
+    <row r="764" spans="2:9" customFormat="false" ht="21">
       <c r="B764" s="19"/>
       <c r="C764" s="20"/>
       <c r="D764" s="21"/>
@@ -11600,7 +12940,7 @@
       <c r="H764" s="19"/>
       <c r="I764" s="26"/>
     </row>
-    <row r="765" spans="2:9" ht="21">
+    <row r="765" spans="2:9" customFormat="false" ht="21">
       <c r="B765" s="19"/>
       <c r="C765" s="20"/>
       <c r="D765" s="21"/>
@@ -11610,52 +12950,57 @@
       <c r="H765" s="19"/>
       <c r="I765" s="26"/>
     </row>
-    <row r="766" spans="2:9" ht="21">
+    <row r="766" spans="2:9" customFormat="false" ht="21">
       <c r="B766" s="19"/>
       <c r="C766" s="20"/>
       <c r="D766" s="21"/>
       <c r="E766" s="21"/>
       <c r="F766" s="20"/>
+      <c r="G766" s="23"/>
       <c r="H766" s="19"/>
       <c r="I766" s="26"/>
     </row>
-    <row r="767" spans="2:9" ht="21">
+    <row r="767" spans="2:9" customFormat="false" ht="21">
       <c r="B767" s="19"/>
       <c r="C767" s="20"/>
       <c r="D767" s="21"/>
       <c r="E767" s="21"/>
       <c r="F767" s="20"/>
+      <c r="G767" s="23"/>
       <c r="H767" s="19"/>
       <c r="I767" s="26"/>
     </row>
-    <row r="768" spans="2:9" ht="21">
+    <row r="768" spans="2:9" customFormat="false" ht="21">
       <c r="B768" s="19"/>
       <c r="C768" s="20"/>
       <c r="D768" s="21"/>
       <c r="E768" s="21"/>
       <c r="F768" s="20"/>
+      <c r="G768" s="23"/>
       <c r="H768" s="19"/>
       <c r="I768" s="26"/>
     </row>
-    <row r="769" spans="2:9" ht="21">
+    <row r="769" spans="2:9" customFormat="false" ht="21">
       <c r="B769" s="19"/>
       <c r="C769" s="20"/>
       <c r="D769" s="21"/>
       <c r="E769" s="21"/>
       <c r="F769" s="20"/>
+      <c r="G769" s="23"/>
       <c r="H769" s="19"/>
       <c r="I769" s="26"/>
     </row>
-    <row r="770" spans="2:9" ht="21">
+    <row r="770" spans="2:9" customFormat="false" ht="21">
       <c r="B770" s="19"/>
       <c r="C770" s="20"/>
       <c r="D770" s="21"/>
       <c r="E770" s="21"/>
       <c r="F770" s="20"/>
+      <c r="G770" s="23"/>
       <c r="H770" s="19"/>
       <c r="I770" s="26"/>
     </row>
-    <row r="771" spans="2:9" ht="21">
+    <row r="771" spans="2:9" customFormat="false" ht="21">
       <c r="B771" s="19"/>
       <c r="C771" s="20"/>
       <c r="D771" s="21"/>
@@ -11664,7 +13009,7 @@
       <c r="H771" s="19"/>
       <c r="I771" s="26"/>
     </row>
-    <row r="772" spans="2:9" ht="21">
+    <row r="772" spans="2:9" customFormat="false" ht="21">
       <c r="B772" s="19"/>
       <c r="C772" s="20"/>
       <c r="D772" s="21"/>
@@ -11673,7 +13018,7 @@
       <c r="H772" s="19"/>
       <c r="I772" s="26"/>
     </row>
-    <row r="773" spans="2:9" ht="21">
+    <row r="773" spans="2:9" customFormat="false" ht="21">
       <c r="B773" s="19"/>
       <c r="C773" s="20"/>
       <c r="D773" s="21"/>
@@ -11682,104 +13027,149 @@
       <c r="H773" s="19"/>
       <c r="I773" s="26"/>
     </row>
-    <row r="774" spans="2:9" ht="21">
-      <c r="B774" s="13"/>
-      <c r="C774" s="14"/>
-      <c r="F774" s="14"/>
-      <c r="H774" s="13"/>
-    </row>
-    <row r="775" spans="2:9" ht="21">
-      <c r="B775" s="13"/>
-      <c r="C775" s="14"/>
-      <c r="F775" s="14"/>
-      <c r="H775" s="13"/>
-    </row>
-    <row r="776" spans="2:9" ht="21">
-      <c r="B776" s="13"/>
-      <c r="C776" s="14"/>
-      <c r="F776" s="14"/>
-      <c r="H776" s="13"/>
-    </row>
-    <row r="777" spans="2:9" ht="21">
-      <c r="B777" s="13"/>
-      <c r="C777" s="14"/>
-      <c r="F777" s="14"/>
-      <c r="H777" s="13"/>
-    </row>
-    <row r="778" spans="2:9" ht="21">
-      <c r="B778" s="13"/>
-      <c r="C778" s="14"/>
-      <c r="F778" s="14"/>
-      <c r="H778" s="13"/>
-    </row>
-    <row r="779" spans="2:9" ht="21">
+    <row r="774" spans="2:9" customFormat="false" ht="21">
+      <c r="B774" s="19"/>
+      <c r="C774" s="20"/>
+      <c r="D774" s="21"/>
+      <c r="E774" s="21"/>
+      <c r="F774" s="20"/>
+      <c r="H774" s="19"/>
+      <c r="I774" s="26"/>
+    </row>
+    <row r="775" spans="2:9" customFormat="false" ht="21">
+      <c r="B775" s="19"/>
+      <c r="C775" s="20"/>
+      <c r="D775" s="21"/>
+      <c r="E775" s="21"/>
+      <c r="F775" s="20"/>
+      <c r="H775" s="19"/>
+      <c r="I775" s="26"/>
+    </row>
+    <row r="776" spans="2:9" customFormat="false" ht="21">
+      <c r="B776" s="19"/>
+      <c r="C776" s="20"/>
+      <c r="D776" s="21"/>
+      <c r="E776" s="21"/>
+      <c r="F776" s="20"/>
+      <c r="H776" s="19"/>
+      <c r="I776" s="26"/>
+    </row>
+    <row r="777" spans="2:9" customFormat="false" ht="21">
+      <c r="B777" s="19"/>
+      <c r="C777" s="20"/>
+      <c r="D777" s="21"/>
+      <c r="E777" s="21"/>
+      <c r="F777" s="20"/>
+      <c r="H777" s="19"/>
+      <c r="I777" s="26"/>
+    </row>
+    <row r="778" spans="2:9" customFormat="false" ht="21">
+      <c r="B778" s="19"/>
+      <c r="C778" s="20"/>
+      <c r="D778" s="21"/>
+      <c r="E778" s="21"/>
+      <c r="F778" s="20"/>
+      <c r="H778" s="19"/>
+      <c r="I778" s="26"/>
+    </row>
+    <row r="779" spans="2:8" customFormat="false" ht="21">
       <c r="B779" s="13"/>
       <c r="C779" s="14"/>
       <c r="F779" s="14"/>
       <c r="H779" s="13"/>
     </row>
-    <row r="780" spans="2:9" ht="21">
+    <row r="780" spans="2:8" customFormat="false" ht="21">
       <c r="B780" s="13"/>
       <c r="C780" s="14"/>
       <c r="F780" s="14"/>
       <c r="H780" s="13"/>
     </row>
-    <row r="781" spans="2:9" ht="21">
+    <row r="781" spans="2:8" customFormat="false" ht="21">
       <c r="B781" s="13"/>
       <c r="C781" s="14"/>
       <c r="F781" s="14"/>
       <c r="H781" s="13"/>
     </row>
-    <row r="782" spans="2:9" ht="21">
+    <row r="782" spans="2:8" customFormat="false" ht="21">
       <c r="B782" s="13"/>
       <c r="C782" s="14"/>
       <c r="F782" s="14"/>
       <c r="H782" s="13"/>
     </row>
-    <row r="783" spans="2:9" ht="21">
+    <row r="783" spans="2:8" customFormat="false" ht="21">
       <c r="B783" s="13"/>
       <c r="C783" s="14"/>
       <c r="F783" s="14"/>
       <c r="H783" s="13"/>
     </row>
-    <row r="784" spans="2:9" ht="21">
+    <row r="784" spans="2:8" customFormat="false" ht="21">
       <c r="B784" s="13"/>
       <c r="C784" s="14"/>
       <c r="F784" s="14"/>
       <c r="H784" s="13"/>
     </row>
-    <row r="785" spans="2:8" ht="21">
+    <row r="785" spans="2:8" customFormat="false" ht="21">
       <c r="B785" s="13"/>
       <c r="C785" s="14"/>
       <c r="F785" s="14"/>
       <c r="H785" s="13"/>
     </row>
-    <row r="786" spans="2:8" ht="21">
+    <row r="786" spans="2:8" customFormat="false" ht="21">
       <c r="B786" s="13"/>
       <c r="C786" s="14"/>
       <c r="F786" s="14"/>
       <c r="H786" s="13"/>
     </row>
-    <row r="787" spans="2:8" ht="21">
+    <row r="787" spans="2:8" customFormat="false" ht="21">
       <c r="B787" s="13"/>
       <c r="C787" s="14"/>
       <c r="F787" s="14"/>
       <c r="H787" s="13"/>
     </row>
-    <row r="788" spans="2:8" ht="21">
+    <row r="788" spans="2:8" customFormat="false" ht="21">
       <c r="B788" s="13"/>
       <c r="C788" s="14"/>
       <c r="F788" s="14"/>
       <c r="H788" s="13"/>
     </row>
-    <row r="789" spans="2:8" ht="21">
+    <row r="789" spans="2:8" customFormat="false" ht="21">
       <c r="B789" s="13"/>
       <c r="C789" s="14"/>
       <c r="F789" s="14"/>
       <c r="H789" s="13"/>
     </row>
+    <row r="790" spans="2:8" customFormat="false" ht="21">
+      <c r="B790" s="13"/>
+      <c r="C790" s="14"/>
+      <c r="F790" s="14"/>
+      <c r="H790" s="13"/>
+    </row>
+    <row r="791" spans="2:8" customFormat="false" ht="21">
+      <c r="B791" s="13"/>
+      <c r="C791" s="14"/>
+      <c r="F791" s="14"/>
+      <c r="H791" s="13"/>
+    </row>
+    <row r="792" spans="2:8" customFormat="false" ht="21">
+      <c r="B792" s="13"/>
+      <c r="C792" s="14"/>
+      <c r="F792" s="14"/>
+      <c r="H792" s="13"/>
+    </row>
+    <row r="793" spans="2:8" customFormat="false" ht="21">
+      <c r="B793" s="13"/>
+      <c r="C793" s="14"/>
+      <c r="F793" s="14"/>
+      <c r="H793" s="13"/>
+    </row>
+    <row r="794" spans="2:8" customFormat="false" ht="21">
+      <c r="B794" s="13"/>
+      <c r="C794" s="14"/>
+      <c r="F794" s="14"/>
+      <c r="H794" s="13"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -11793,17 +13183,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <sheetPr enableFormatConditionsCalculation="false">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="false" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -11812,7 +13202,7 @@
     <col min="11" max="256" width="5.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1">
+    <row r="1" spans="1:10" customFormat="false" ht="19.5" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -11844,7 +13234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.5" customHeight="1">
+    <row r="2" spans="1:10" customFormat="false" ht="18.5" customHeight="1">
       <c r="A2" s="28">
         <f t="shared" ref="A2:A10" si="0">ROW(B2)-1</f>
         <v>1</v>
@@ -11876,7 +13266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.5" customHeight="1">
+    <row r="3" spans="1:10" customFormat="false" ht="18.5" customHeight="1">
       <c r="A3" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -11908,7 +13298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.5" customHeight="1">
+    <row r="4" spans="1:10" customFormat="false" ht="18.5" customHeight="1">
       <c r="A4" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -11940,7 +13330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.5" customHeight="1">
+    <row r="5" spans="1:10" customFormat="false" ht="18.5" customHeight="1">
       <c r="A5" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -11972,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.5" customHeight="1">
+    <row r="6" spans="1:10" customFormat="false" ht="18.5" customHeight="1">
       <c r="A6" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12004,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.5" customHeight="1">
+    <row r="7" spans="1:10" customFormat="false" ht="18.5" customHeight="1">
       <c r="A7" s="28">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12036,7 +13426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.5" customHeight="1">
+    <row r="8" spans="1:10" customFormat="false" ht="18.5" customHeight="1">
       <c r="A8" s="28">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12068,7 +13458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.5" customHeight="1">
+    <row r="9" spans="1:10" customFormat="false" ht="18.5" customHeight="1">
       <c r="A9" s="28">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12100,7 +13490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.5" customHeight="1">
+    <row r="10" spans="1:10" customFormat="false" ht="18.5" customHeight="1">
       <c r="A10" s="28">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12135,11 +13525,11 @@
   </sheetData>
   <autoFilter ref="A1:J10"/>
   <sortState ref="A2:J17">
-    <sortCondition descending="1" ref="J2:J17"/>
-    <sortCondition descending="1" ref="I2:I17"/>
-    <sortCondition ref="H2:H17"/>
+    <sortCondition descending="1" ref="J2:J17" iconSet="3Arrows"/>
+    <sortCondition descending="1" ref="I2:I17" iconSet="3Arrows"/>
+    <sortCondition ref="H2:H17" iconSet="3Arrows"/>
   </sortState>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -12153,17 +13543,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <sheetPr enableFormatConditionsCalculation="false">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="false" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="5" customWidth="1"/>
@@ -12175,7 +13565,7 @@
     <col min="8" max="256" width="21.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.75" customHeight="1">
+    <row r="1" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -12198,7 +13588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.75" customHeight="1">
+    <row r="2" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A2" s="44" t="s">
         <v>34</v>
       </c>
@@ -12227,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.75" customHeight="1">
+    <row r="3" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A3" s="44" t="s">
         <v>32</v>
       </c>
@@ -12256,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.75" customHeight="1">
+    <row r="4" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A4" s="44" t="s">
         <v>35</v>
       </c>
@@ -12285,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.75" customHeight="1">
+    <row r="5" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A5" s="44" t="s">
         <v>33</v>
       </c>
@@ -12314,7 +13704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.75" customHeight="1">
+    <row r="6" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A6" s="44" t="s">
         <v>36</v>
       </c>
@@ -12343,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.75" customHeight="1">
+    <row r="7" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A7" s="44" t="s">
         <v>37</v>
       </c>
@@ -12372,7 +13762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.75" customHeight="1">
+    <row r="8" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A8" s="44" t="s">
         <v>38</v>
       </c>
@@ -12401,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.75" customHeight="1">
+    <row r="9" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A9" s="44" t="s">
         <v>40</v>
       </c>
@@ -12430,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.75" customHeight="1">
+    <row r="10" spans="1:7" customFormat="false" ht="14.75" customHeight="1">
       <c r="A10" s="44" t="s">
         <v>39</v>
       </c>
@@ -12460,7 +13850,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -12477,17 +13867,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <sheetPr enableFormatConditionsCalculation="false">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV201"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="31.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="32.1640625" style="9" bestFit="1" customWidth="1"/>
@@ -12495,7 +13885,7 @@
     <col min="5" max="256" width="21.1640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.75" customHeight="1">
+    <row r="1" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -12509,7 +13899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.75" customHeight="1">
+    <row r="2" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A2" s="3" t="str">
         <f>IF(ISBLANK(Results!$D2),"",IF(Results!$D2&gt;Results!$E2,Results!$C2,IF(Results!$D2=Results!$E2,"DRAW",Results!$F2)))</f>
         <v>DRAW</v>
@@ -12527,7 +13917,7 @@
         <v>Dalton Braves</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.75" customHeight="1">
+    <row r="3" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A3" s="3" t="str">
         <f>IF(ISBLANK(Results!$D3),"",IF(Results!$D3&gt;Results!$E3,Results!$C3,IF(Results!$D3=Results!$E3,"DRAW",Results!$F3)))</f>
         <v>DRAW</v>
@@ -12545,7 +13935,7 @@
         <v>Dalton Warriors</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.75" customHeight="1">
+    <row r="4" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A4" s="3" t="str">
         <f>IF(ISBLANK(Results!$D4),"",IF(Results!$D4&gt;Results!$E4,Results!$C4,IF(Results!$D4=Results!$E4,"DRAW",Results!$F4)))</f>
         <v>DRAW</v>
@@ -12563,7 +13953,7 @@
         <v>Adams Sparky's</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.75" customHeight="1">
+    <row r="5" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A5" s="3" t="str">
         <f>IF(ISBLANK(Results!$D5),"",IF(Results!$D5&gt;Results!$E5,Results!$C5,IF(Results!$D5=Results!$E5,"DRAW",Results!$F5)))</f>
         <v>DRAW</v>
@@ -12581,7 +13971,7 @@
         <v>PSC Morgan</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.75" customHeight="1">
+    <row r="6" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A6" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12599,7 +13989,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.75" customHeight="1">
+    <row r="7" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -12614,7 +14004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.75" customHeight="1">
+    <row r="8" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -12628,7 +14018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.75" customHeight="1">
+    <row r="9" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -12642,7 +14032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.75" customHeight="1">
+    <row r="10" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12657,7 +14047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.75" customHeight="1">
+    <row r="11" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -12672,7 +14062,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.75" customHeight="1">
+    <row r="12" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A12" s="3" t="str">
         <f>IF(ISBLANK(Results!$D7),"",IF(Results!$D7&gt;Results!$E7,Results!$C7,IF(Results!$D7=Results!$E7,"DRAW",Results!$F7)))</f>
         <v/>
@@ -12690,7 +14080,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.75" customHeight="1">
+    <row r="13" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="str">
         <f>IF(ISBLANK(Results!$D8),"",IF(Results!$D8&lt;Results!$E8,Results!$C8,IF(Results!$D8=Results!$E8,"DRAW",Results!$F8)))</f>
@@ -12705,7 +14095,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.75" customHeight="1">
+    <row r="14" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A14" s="3" t="str">
         <f>IF(ISBLANK(Results!$D9),"",IF(Results!$D9&gt;Results!$E9,Results!$C9,IF(Results!$D9=Results!$E9,"DRAW",Results!$F9)))</f>
         <v/>
@@ -12723,7 +14113,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.75" customHeight="1">
+    <row r="15" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A15" s="3" t="str">
         <f>IF(ISBLANK(Results!$D10),"",IF(Results!$D10&gt;Results!$E10,Results!$C10,IF(Results!$D10=Results!$E10,"DRAW",Results!$F10)))</f>
         <v/>
@@ -12741,7 +14131,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.75" customHeight="1">
+    <row r="16" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A16" s="3" t="str">
         <f>IF(ISBLANK(Results!$D11),"",IF(Results!$D11&gt;Results!$E11,Results!$C11,IF(Results!$D11=Results!$E11,"DRAW",Results!$F11)))</f>
         <v/>
@@ -12759,7 +14149,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.75" customHeight="1">
+    <row r="17" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A17" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12777,7 +14167,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.75" customHeight="1">
+    <row r="18" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A18" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12795,7 +14185,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.75" customHeight="1">
+    <row r="19" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A19" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12813,7 +14203,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.75" customHeight="1">
+    <row r="20" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A20" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12831,7 +14221,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.75" customHeight="1">
+    <row r="21" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A21" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12849,7 +14239,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.75" customHeight="1">
+    <row r="22" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A22" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12867,7 +14257,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.75" customHeight="1">
+    <row r="23" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A23" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12885,7 +14275,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.75" customHeight="1">
+    <row r="24" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A24" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12903,7 +14293,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.75" customHeight="1">
+    <row r="25" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A25" s="3" t="str">
         <f>IF(ISBLANK(Results!$D6),"",IF(Results!$D6&gt;Results!$E6,Results!$C6,IF(Results!$D6=Results!$E6,"DRAW",Results!$F6)))</f>
         <v>DRAW</v>
@@ -12921,7 +14311,7 @@
         <v>BYE</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.75" customHeight="1">
+    <row r="26" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A26" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12939,7 +14329,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.75" customHeight="1">
+    <row r="27" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A27" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12957,7 +14347,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.75" customHeight="1">
+    <row r="28" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A28" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12975,7 +14365,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.75" customHeight="1">
+    <row r="29" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A29" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -12993,7 +14383,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.75" customHeight="1">
+    <row r="30" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A30" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13011,7 +14401,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.75" customHeight="1">
+    <row r="31" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A31" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13029,7 +14419,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.75" customHeight="1">
+    <row r="32" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A32" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13047,7 +14437,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.75" customHeight="1">
+    <row r="33" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A33" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13065,7 +14455,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.75" customHeight="1">
+    <row r="34" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A34" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13083,7 +14473,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.75" customHeight="1">
+    <row r="35" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A35" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13101,7 +14491,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.75" customHeight="1">
+    <row r="36" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A36" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13119,7 +14509,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.75" customHeight="1">
+    <row r="37" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A37" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13137,7 +14527,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.75" customHeight="1">
+    <row r="38" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A38" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13155,7 +14545,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.75" customHeight="1">
+    <row r="39" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A39" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13173,7 +14563,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.75" customHeight="1">
+    <row r="40" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A40" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13191,7 +14581,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.75" customHeight="1">
+    <row r="41" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A41" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13209,7 +14599,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.75" customHeight="1">
+    <row r="42" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A42" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13227,7 +14617,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.75" customHeight="1">
+    <row r="43" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A43" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13245,7 +14635,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.75" customHeight="1">
+    <row r="44" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A44" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13263,7 +14653,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.75" customHeight="1">
+    <row r="45" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A45" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13281,7 +14671,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.75" customHeight="1">
+    <row r="46" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A46" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13299,7 +14689,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.75" customHeight="1">
+    <row r="47" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A47" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13317,7 +14707,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.75" customHeight="1">
+    <row r="48" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A48" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13335,7 +14725,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.75" customHeight="1">
+    <row r="49" spans="1:4" customFormat="false" ht="14.75" customHeight="1">
       <c r="A49" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13353,7 +14743,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14" customHeight="1">
+    <row r="50" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A50" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13371,7 +14761,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14" customHeight="1">
+    <row r="51" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A51" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13389,7 +14779,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14" customHeight="1">
+    <row r="52" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A52" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13407,7 +14797,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14" customHeight="1">
+    <row r="53" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A53" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13425,7 +14815,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14" customHeight="1">
+    <row r="54" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A54" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13443,7 +14833,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14" customHeight="1">
+    <row r="55" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A55" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13461,7 +14851,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14" customHeight="1">
+    <row r="56" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A56" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13479,7 +14869,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14" customHeight="1">
+    <row r="57" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A57" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13497,7 +14887,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14" customHeight="1">
+    <row r="58" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A58" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13515,7 +14905,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14" customHeight="1">
+    <row r="59" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A59" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13533,7 +14923,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14" customHeight="1">
+    <row r="60" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A60" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13551,7 +14941,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14" customHeight="1">
+    <row r="61" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A61" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13569,7 +14959,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14" customHeight="1">
+    <row r="62" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A62" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13587,7 +14977,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14" customHeight="1">
+    <row r="63" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A63" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13605,7 +14995,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14" customHeight="1">
+    <row r="64" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A64" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13623,7 +15013,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14" customHeight="1">
+    <row r="65" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A65" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13641,7 +15031,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14" customHeight="1">
+    <row r="66" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A66" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13659,7 +15049,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14" customHeight="1">
+    <row r="67" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A67" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13677,7 +15067,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14" customHeight="1">
+    <row r="68" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A68" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13695,7 +15085,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14" customHeight="1">
+    <row r="69" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A69" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13713,7 +15103,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14" customHeight="1">
+    <row r="70" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A70" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13731,7 +15121,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14" customHeight="1">
+    <row r="71" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A71" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13749,7 +15139,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14" customHeight="1">
+    <row r="72" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A72" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13767,7 +15157,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14" customHeight="1">
+    <row r="73" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A73" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13785,7 +15175,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="14" customHeight="1">
+    <row r="74" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A74" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13803,7 +15193,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="14" customHeight="1">
+    <row r="75" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A75" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13821,7 +15211,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="14" customHeight="1">
+    <row r="76" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A76" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13839,7 +15229,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="14" customHeight="1">
+    <row r="77" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A77" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13857,7 +15247,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14" customHeight="1">
+    <row r="78" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A78" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13875,7 +15265,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14" customHeight="1">
+    <row r="79" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A79" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13893,7 +15283,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14" customHeight="1">
+    <row r="80" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A80" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13911,7 +15301,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="14" customHeight="1">
+    <row r="81" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A81" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13929,7 +15319,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="14" customHeight="1">
+    <row r="82" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A82" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13947,7 +15337,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="14" customHeight="1">
+    <row r="83" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A83" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13965,7 +15355,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="14" customHeight="1">
+    <row r="84" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A84" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -13983,7 +15373,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="14" customHeight="1">
+    <row r="85" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A85" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14001,7 +15391,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="14" customHeight="1">
+    <row r="86" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A86" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14019,7 +15409,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="14" customHeight="1">
+    <row r="87" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A87" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14037,7 +15427,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14" customHeight="1">
+    <row r="88" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A88" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14055,7 +15445,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="14" customHeight="1">
+    <row r="89" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A89" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14073,7 +15463,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="14" customHeight="1">
+    <row r="90" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A90" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14091,7 +15481,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14" customHeight="1">
+    <row r="91" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A91" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14109,7 +15499,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="14" customHeight="1">
+    <row r="92" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A92" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14127,7 +15517,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14" customHeight="1">
+    <row r="93" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A93" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14145,7 +15535,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="14" customHeight="1">
+    <row r="94" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A94" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14163,7 +15553,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="14" customHeight="1">
+    <row r="95" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A95" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14181,7 +15571,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="14" customHeight="1">
+    <row r="96" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A96" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14199,7 +15589,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14" customHeight="1">
+    <row r="97" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A97" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14217,7 +15607,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14" customHeight="1">
+    <row r="98" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A98" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14235,7 +15625,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14" customHeight="1">
+    <row r="99" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A99" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14253,7 +15643,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14" customHeight="1">
+    <row r="100" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A100" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14271,7 +15661,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14" customHeight="1">
+    <row r="101" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A101" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14289,7 +15679,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="14" customHeight="1">
+    <row r="102" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A102" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14307,7 +15697,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14" customHeight="1">
+    <row r="103" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A103" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14325,7 +15715,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="14" customHeight="1">
+    <row r="104" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A104" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14343,7 +15733,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="14" customHeight="1">
+    <row r="105" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A105" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14361,7 +15751,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="14" customHeight="1">
+    <row r="106" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A106" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14379,7 +15769,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="14" customHeight="1">
+    <row r="107" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A107" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14397,7 +15787,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="14" customHeight="1">
+    <row r="108" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A108" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14415,7 +15805,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="14" customHeight="1">
+    <row r="109" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A109" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14433,7 +15823,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="14" customHeight="1">
+    <row r="110" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A110" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14451,7 +15841,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="14" customHeight="1">
+    <row r="111" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A111" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14469,7 +15859,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14" customHeight="1">
+    <row r="112" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A112" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14487,7 +15877,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14" customHeight="1">
+    <row r="113" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A113" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14505,7 +15895,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14" customHeight="1">
+    <row r="114" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A114" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14523,7 +15913,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="14" customHeight="1">
+    <row r="115" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A115" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14541,7 +15931,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="14" customHeight="1">
+    <row r="116" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A116" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14559,7 +15949,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14" customHeight="1">
+    <row r="117" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A117" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14577,7 +15967,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="14" customHeight="1">
+    <row r="118" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A118" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14595,7 +15985,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="14" customHeight="1">
+    <row r="119" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A119" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14613,7 +16003,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="14" customHeight="1">
+    <row r="120" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A120" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14631,7 +16021,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="14" customHeight="1">
+    <row r="121" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A121" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14649,7 +16039,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="14" customHeight="1">
+    <row r="122" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A122" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14667,7 +16057,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="14" customHeight="1">
+    <row r="123" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A123" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14685,7 +16075,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="14" customHeight="1">
+    <row r="124" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A124" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14703,7 +16093,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="14" customHeight="1">
+    <row r="125" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A125" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14721,7 +16111,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="14" customHeight="1">
+    <row r="126" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A126" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14739,7 +16129,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="14" customHeight="1">
+    <row r="127" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A127" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14757,7 +16147,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="14" customHeight="1">
+    <row r="128" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A128" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14775,7 +16165,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="14" customHeight="1">
+    <row r="129" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A129" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14793,7 +16183,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="14" customHeight="1">
+    <row r="130" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A130" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14811,7 +16201,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="14" customHeight="1">
+    <row r="131" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A131" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14829,7 +16219,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="14" customHeight="1">
+    <row r="132" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A132" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14847,7 +16237,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="14" customHeight="1">
+    <row r="133" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A133" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14865,7 +16255,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14" customHeight="1">
+    <row r="134" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A134" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14883,7 +16273,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="14" customHeight="1">
+    <row r="135" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A135" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14901,7 +16291,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="14" customHeight="1">
+    <row r="136" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A136" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14919,7 +16309,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="14" customHeight="1">
+    <row r="137" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A137" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14937,7 +16327,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="14" customHeight="1">
+    <row r="138" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A138" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14955,7 +16345,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="14" customHeight="1">
+    <row r="139" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A139" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14973,7 +16363,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="14" customHeight="1">
+    <row r="140" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A140" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -14991,7 +16381,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="14" customHeight="1">
+    <row r="141" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A141" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15009,7 +16399,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="14" customHeight="1">
+    <row r="142" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A142" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15027,7 +16417,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="14" customHeight="1">
+    <row r="143" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A143" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15045,7 +16435,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14" customHeight="1">
+    <row r="144" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A144" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15063,7 +16453,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14" customHeight="1">
+    <row r="145" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A145" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15081,7 +16471,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14" customHeight="1">
+    <row r="146" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A146" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15099,7 +16489,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14" customHeight="1">
+    <row r="147" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A147" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15117,7 +16507,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14" customHeight="1">
+    <row r="148" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A148" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15135,7 +16525,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14" customHeight="1">
+    <row r="149" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A149" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15153,7 +16543,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14" customHeight="1">
+    <row r="150" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A150" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15171,7 +16561,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14" customHeight="1">
+    <row r="151" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A151" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15189,7 +16579,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="14" customHeight="1">
+    <row r="152" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A152" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15207,7 +16597,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="14" customHeight="1">
+    <row r="153" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A153" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15225,7 +16615,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="14" customHeight="1">
+    <row r="154" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A154" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15243,7 +16633,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="14" customHeight="1">
+    <row r="155" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A155" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15261,7 +16651,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="14" customHeight="1">
+    <row r="156" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A156" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15279,7 +16669,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="14" customHeight="1">
+    <row r="157" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A157" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15297,7 +16687,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="14" customHeight="1">
+    <row r="158" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A158" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15315,7 +16705,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="14" customHeight="1">
+    <row r="159" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A159" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15333,7 +16723,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="14" customHeight="1">
+    <row r="160" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A160" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15351,7 +16741,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="14" customHeight="1">
+    <row r="161" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A161" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15369,7 +16759,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="14" customHeight="1">
+    <row r="162" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A162" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15387,7 +16777,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="14" customHeight="1">
+    <row r="163" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A163" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15405,7 +16795,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="14" customHeight="1">
+    <row r="164" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A164" s="3" t="e">
         <f>IF(ISBLANK(Results!#REF!),"",IF(Results!#REF!&gt;Results!#REF!,Results!#REF!,IF(Results!#REF!=Results!#REF!,"DRAW",Results!#REF!)))</f>
         <v>#REF!</v>
@@ -15423,7 +16813,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="14" customHeight="1">
+    <row r="165" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A165" s="3" t="str">
         <f>IF(ISBLANK(Results!$D12),"",IF(Results!$D12&gt;Results!$E12,Results!$C12,IF(Results!$D12=Results!$E12,"DRAW",Results!$F12)))</f>
         <v/>
@@ -15441,7 +16831,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="14" customHeight="1">
+    <row r="166" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A166" s="3" t="str">
         <f>IF(ISBLANK(Results!$D13),"",IF(Results!$D13&gt;Results!$E13,Results!$C13,IF(Results!$D13=Results!$E13,"DRAW",Results!$F13)))</f>
         <v/>
@@ -15459,7 +16849,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="14" customHeight="1">
+    <row r="167" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A167" s="3" t="str">
         <f>IF(ISBLANK(Results!$D14),"",IF(Results!$D14&gt;Results!$E14,Results!$C14,IF(Results!$D14=Results!$E14,"DRAW",Results!$F14)))</f>
         <v/>
@@ -15477,7 +16867,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="14" customHeight="1">
+    <row r="168" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A168" s="3" t="str">
         <f>IF(ISBLANK(Results!$D15),"",IF(Results!$D15&gt;Results!$E15,Results!$C15,IF(Results!$D15=Results!$E15,"DRAW",Results!$F15)))</f>
         <v/>
@@ -15495,7 +16885,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="14" customHeight="1">
+    <row r="169" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A169" s="3" t="str">
         <f>IF(ISBLANK(Results!$D16),"",IF(Results!$D16&gt;Results!$E16,Results!$C16,IF(Results!$D16=Results!$E16,"DRAW",Results!$F16)))</f>
         <v/>
@@ -15513,7 +16903,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="14" customHeight="1">
+    <row r="170" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A170" s="3" t="str">
         <f>IF(ISBLANK(Results!$D17),"",IF(Results!$D17&gt;Results!$E17,Results!$C17,IF(Results!$D17=Results!$E17,"DRAW",Results!$F17)))</f>
         <v/>
@@ -15531,7 +16921,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="14" customHeight="1">
+    <row r="171" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A171" s="3" t="str">
         <f>IF(ISBLANK(Results!$D18),"",IF(Results!$D18&gt;Results!$E18,Results!$C18,IF(Results!$D18=Results!$E18,"DRAW",Results!$F18)))</f>
         <v/>
@@ -15549,7 +16939,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="14" customHeight="1">
+    <row r="172" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A172" s="3" t="str">
         <f>IF(ISBLANK(Results!$D19),"",IF(Results!$D19&gt;Results!$E19,Results!$C19,IF(Results!$D19=Results!$E19,"DRAW",Results!$F19)))</f>
         <v/>
@@ -15567,7 +16957,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="14" customHeight="1">
+    <row r="173" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A173" s="3" t="str">
         <f>IF(ISBLANK(Results!$D20),"",IF(Results!$D20&gt;Results!$E20,Results!$C20,IF(Results!$D20=Results!$E20,"DRAW",Results!$F20)))</f>
         <v/>
@@ -15585,7 +16975,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="14" customHeight="1">
+    <row r="174" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A174" s="3" t="str">
         <f>IF(ISBLANK(Results!$D21),"",IF(Results!$D21&gt;Results!$E21,Results!$C21,IF(Results!$D21=Results!$E21,"DRAW",Results!$F21)))</f>
         <v/>
@@ -15603,7 +16993,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="14" customHeight="1">
+    <row r="175" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A175" s="3" t="str">
         <f>IF(ISBLANK(Results!$D22),"",IF(Results!$D22&gt;Results!$E22,Results!$C22,IF(Results!$D22=Results!$E22,"DRAW",Results!$F22)))</f>
         <v/>
@@ -15621,7 +17011,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="14" customHeight="1">
+    <row r="176" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A176" s="3" t="str">
         <f>IF(ISBLANK(Results!$D23),"",IF(Results!$D23&gt;Results!$E23,Results!$C23,IF(Results!$D23=Results!$E23,"DRAW",Results!$F23)))</f>
         <v/>
@@ -15639,7 +17029,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="14" customHeight="1">
+    <row r="177" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A177" s="3" t="str">
         <f>IF(ISBLANK(Results!$D24),"",IF(Results!$D24&gt;Results!$E24,Results!$C24,IF(Results!$D24=Results!$E24,"DRAW",Results!$F24)))</f>
         <v/>
@@ -15657,7 +17047,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="14" customHeight="1">
+    <row r="178" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A178" s="3" t="str">
         <f>IF(ISBLANK(Results!$D25),"",IF(Results!$D25&gt;Results!$E25,Results!$C25,IF(Results!$D25=Results!$E25,"DRAW",Results!$F25)))</f>
         <v/>
@@ -15675,7 +17065,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="14" customHeight="1">
+    <row r="179" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A179" s="3" t="str">
         <f>IF(ISBLANK(Results!$D26),"",IF(Results!$D26&gt;Results!$E26,Results!$C26,IF(Results!$D26=Results!$E26,"DRAW",Results!$F26)))</f>
         <v/>
@@ -15693,7 +17083,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="14" customHeight="1">
+    <row r="180" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A180" s="3" t="str">
         <f>IF(ISBLANK(Results!$D27),"",IF(Results!$D27&gt;Results!$E27,Results!$C27,IF(Results!$D27=Results!$E27,"DRAW",Results!$F27)))</f>
         <v/>
@@ -15711,7 +17101,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="14" customHeight="1">
+    <row r="181" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A181" s="3" t="str">
         <f>IF(ISBLANK(Results!$D28),"",IF(Results!$D28&gt;Results!$E28,Results!$C28,IF(Results!$D28=Results!$E28,"DRAW",Results!$F28)))</f>
         <v/>
@@ -15729,7 +17119,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="14" customHeight="1">
+    <row r="182" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A182" s="3" t="str">
         <f>IF(ISBLANK(Results!$D29),"",IF(Results!$D29&gt;Results!$E29,Results!$C29,IF(Results!$D29=Results!$E29,"DRAW",Results!$F29)))</f>
         <v/>
@@ -15747,7 +17137,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="14" customHeight="1">
+    <row r="183" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A183" s="3" t="str">
         <f>IF(ISBLANK(Results!$D30),"",IF(Results!$D30&gt;Results!$E30,Results!$C30,IF(Results!$D30=Results!$E30,"DRAW",Results!$F30)))</f>
         <v/>
@@ -15765,7 +17155,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="14" customHeight="1">
+    <row r="184" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A184" s="3" t="str">
         <f>IF(ISBLANK(Results!$D31),"",IF(Results!$D31&gt;Results!$E31,Results!$C31,IF(Results!$D31=Results!$E31,"DRAW",Results!$F31)))</f>
         <v/>
@@ -15783,7 +17173,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="14" customHeight="1">
+    <row r="185" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A185" s="3" t="str">
         <f>IF(ISBLANK(Results!$D32),"",IF(Results!$D32&gt;Results!$E32,Results!$C32,IF(Results!$D32=Results!$E32,"DRAW",Results!$F32)))</f>
         <v/>
@@ -15801,7 +17191,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="14" customHeight="1">
+    <row r="186" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A186" s="3" t="str">
         <f>IF(ISBLANK(Results!$D33),"",IF(Results!$D33&gt;Results!$E33,Results!$C33,IF(Results!$D33=Results!$E33,"DRAW",Results!$F33)))</f>
         <v/>
@@ -15819,7 +17209,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="14" customHeight="1">
+    <row r="187" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A187" s="3" t="str">
         <f>IF(ISBLANK(Results!$D34),"",IF(Results!$D34&gt;Results!$E34,Results!$C34,IF(Results!$D34=Results!$E34,"DRAW",Results!$F34)))</f>
         <v/>
@@ -15837,7 +17227,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="14" customHeight="1">
+    <row r="188" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A188" s="3" t="str">
         <f>IF(ISBLANK(Results!$D35),"",IF(Results!$D35&gt;Results!$E35,Results!$C35,IF(Results!$D35=Results!$E35,"DRAW",Results!$F35)))</f>
         <v/>
@@ -15855,7 +17245,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="14" customHeight="1">
+    <row r="189" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A189" s="3" t="str">
         <f>IF(ISBLANK(Results!$D36),"",IF(Results!$D36&gt;Results!$E36,Results!$C36,IF(Results!$D36=Results!$E36,"DRAW",Results!$F36)))</f>
         <v/>
@@ -15873,7 +17263,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="14" customHeight="1">
+    <row r="190" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A190" s="3" t="str">
         <f>IF(ISBLANK(Results!$D37),"",IF(Results!$D37&gt;Results!$E37,Results!$C37,IF(Results!$D37=Results!$E37,"DRAW",Results!$F37)))</f>
         <v/>
@@ -15891,7 +17281,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="14" customHeight="1">
+    <row r="191" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A191" s="3" t="str">
         <f>IF(ISBLANK(Results!$D38),"",IF(Results!$D38&gt;Results!$E38,Results!$C38,IF(Results!$D38=Results!$E38,"DRAW",Results!$F38)))</f>
         <v/>
@@ -15909,7 +17299,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="14" customHeight="1">
+    <row r="192" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A192" s="3" t="str">
         <f>IF(ISBLANK(Results!$D39),"",IF(Results!$D39&gt;Results!$E39,Results!$C39,IF(Results!$D39=Results!$E39,"DRAW",Results!$F39)))</f>
         <v/>
@@ -15927,7 +17317,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14" customHeight="1">
+    <row r="193" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A193" s="3" t="str">
         <f>IF(ISBLANK(Results!$D40),"",IF(Results!$D40&gt;Results!$E40,Results!$C40,IF(Results!$D40=Results!$E40,"DRAW",Results!$F40)))</f>
         <v/>
@@ -15945,7 +17335,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14" customHeight="1">
+    <row r="194" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A194" s="3" t="str">
         <f>IF(ISBLANK(Results!$D41),"",IF(Results!$D41&gt;Results!$E41,Results!$C41,IF(Results!$D41=Results!$E41,"DRAW",Results!$F41)))</f>
         <v/>
@@ -15963,7 +17353,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14" customHeight="1">
+    <row r="195" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A195" s="3" t="str">
         <f>IF(ISBLANK(Results!$D42),"",IF(Results!$D42&gt;Results!$E42,Results!$C42,IF(Results!$D42=Results!$E42,"DRAW",Results!$F42)))</f>
         <v/>
@@ -15981,7 +17371,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14" customHeight="1">
+    <row r="196" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A196" s="3" t="str">
         <f>IF(ISBLANK(Results!$D43),"",IF(Results!$D43&gt;Results!$E43,Results!$C43,IF(Results!$D43=Results!$E43,"DRAW",Results!$F43)))</f>
         <v/>
@@ -15999,7 +17389,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="14" customHeight="1">
+    <row r="197" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A197" s="3" t="str">
         <f>IF(ISBLANK(Results!$D44),"",IF(Results!$D44&gt;Results!$E44,Results!$C44,IF(Results!$D44=Results!$E44,"DRAW",Results!$F44)))</f>
         <v/>
@@ -16017,7 +17407,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="14" customHeight="1">
+    <row r="198" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A198" s="3" t="str">
         <f>IF(ISBLANK(Results!$D45),"",IF(Results!$D45&gt;Results!$E45,Results!$C45,IF(Results!$D45=Results!$E45,"DRAW",Results!$F45)))</f>
         <v/>
@@ -16035,7 +17425,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14" customHeight="1">
+    <row r="199" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A199" s="3" t="str">
         <f>IF(ISBLANK(Results!$D46),"",IF(Results!$D46&gt;Results!$E46,Results!$C46,IF(Results!$D46=Results!$E46,"DRAW",Results!$F46)))</f>
         <v/>
@@ -16053,7 +17443,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14" customHeight="1">
+    <row r="200" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A200" s="3" t="str">
         <f>IF(ISBLANK(Results!$D47),"",IF(Results!$D47&gt;Results!$E47,Results!$C47,IF(Results!$D47=Results!$E47,"DRAW",Results!$F47)))</f>
         <v/>
@@ -16071,7 +17461,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14" customHeight="1">
+    <row r="201" spans="1:4" customFormat="false" ht="14" customHeight="1">
       <c r="A201" s="3" t="str">
         <f>IF(ISBLANK(Results!$D48),"",IF(Results!$D48&gt;Results!$E48,Results!$C48,IF(Results!$D48=Results!$E48,"DRAW",Results!$F48)))</f>
         <v/>
@@ -16090,7 +17480,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -16107,33 +17497,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <sheetPr enableFormatConditionsCalculation="false">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="false" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="12" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.75" customHeight="1">
+    <row r="1" spans="1:1" customFormat="false" ht="14.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.75" customHeight="1">
+    <row r="2" spans="1:1" customFormat="false" ht="14.75" customHeight="1">
       <c r="A2" s="7">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
